--- a/src/main/resources/tmp/data.xlsx
+++ b/src/main/resources/tmp/data.xlsx
@@ -120,22 +120,22 @@
         <v>100.0</v>
       </c>
       <c r="C2" t="n">
-        <v>102.04319763183594</v>
+        <v>94.02629089355469</v>
       </c>
       <c r="D2" t="n">
-        <v>59.631439208984375</v>
+        <v>37.55950164794922</v>
       </c>
       <c r="E2" t="n">
-        <v>108.21788024902344</v>
+        <v>96.4500732421875</v>
       </c>
       <c r="F2" t="n">
-        <v>91.6229476928711</v>
+        <v>94.58300018310547</v>
       </c>
       <c r="G2" t="n">
-        <v>117.92163848876953</v>
+        <v>99.75018310546875</v>
       </c>
       <c r="H2" t="n">
-        <v>135.4492645263672</v>
+        <v>145.9667205810547</v>
       </c>
     </row>
     <row r="3">
@@ -146,22 +146,22 @@
         <v>600.0</v>
       </c>
       <c r="C3" t="n">
-        <v>150.4646759033203</v>
+        <v>159.47283935546875</v>
       </c>
       <c r="D3" t="n">
-        <v>47.3316650390625</v>
+        <v>53.331634521484375</v>
       </c>
       <c r="E3" t="n">
-        <v>101.47071838378906</v>
+        <v>108.45284271240234</v>
       </c>
       <c r="F3" t="n">
-        <v>50.806846618652344</v>
+        <v>45.02782440185547</v>
       </c>
       <c r="G3" t="n">
-        <v>96.34322357177734</v>
+        <v>89.84091186523438</v>
       </c>
       <c r="H3" t="n">
-        <v>121.072265625</v>
+        <v>97.06656646728516</v>
       </c>
     </row>
     <row r="4">
@@ -172,22 +172,22 @@
         <v>600.0</v>
       </c>
       <c r="C4" t="n">
-        <v>211.98257446289062</v>
+        <v>261.3246765136719</v>
       </c>
       <c r="D4" t="n">
-        <v>57.67889404296875</v>
+        <v>67.95561981201172</v>
       </c>
       <c r="E4" t="n">
-        <v>158.8585662841797</v>
+        <v>164.03761291503906</v>
       </c>
       <c r="F4" t="n">
-        <v>44.56782913208008</v>
+        <v>65.9398193359375</v>
       </c>
       <c r="G4" t="n">
-        <v>113.92486572265625</v>
+        <v>82.11747741699219</v>
       </c>
       <c r="H4" t="n">
-        <v>100.3796615600586</v>
+        <v>96.90812683105469</v>
       </c>
     </row>
     <row r="5">
@@ -198,910 +198,940 @@
         <v>300.0</v>
       </c>
       <c r="C5" t="n">
-        <v>307.2403869628906</v>
+        <v>338.57537841796875</v>
       </c>
       <c r="D5" t="n">
-        <v>67.71790313720703</v>
+        <v>69.60923767089844</v>
       </c>
       <c r="E5" t="n">
-        <v>226.97366333007812</v>
+        <v>213.62498474121094</v>
       </c>
       <c r="F5" t="n">
-        <v>69.2916030883789</v>
+        <v>53.8577995300293</v>
       </c>
       <c r="G5" t="n">
-        <v>109.69483947753906</v>
+        <v>107.16675567626953</v>
       </c>
       <c r="H5" t="n">
-        <v>54.37513732910156</v>
+        <v>79.30648803710938</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="n">
-        <v>379.836181640625</v>
+        <v>420.1988525390625</v>
       </c>
       <c r="D6" t="n">
-        <v>65.10062408447266</v>
+        <v>58.87068176269531</v>
       </c>
       <c r="E6" t="n">
-        <v>285.406982421875</v>
+        <v>287.4224853515625</v>
       </c>
       <c r="F6" t="n">
-        <v>66.5091323852539</v>
+        <v>60.1732292175293</v>
       </c>
       <c r="G6" t="n">
-        <v>174.741943359375</v>
+        <v>102.55769348144531</v>
       </c>
       <c r="H6" t="n">
-        <v>57.705421447753906</v>
+        <v>55.62895202636719</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="n">
-        <v>466.7552795410156</v>
+        <v>502.3494567871094</v>
       </c>
       <c r="D7" t="n">
-        <v>73.30752563476562</v>
+        <v>67.83168029785156</v>
       </c>
       <c r="E7" t="n">
-        <v>361.47552490234375</v>
+        <v>368.5165100097656</v>
       </c>
       <c r="F7" t="n">
-        <v>70.23439025878906</v>
+        <v>56.57926559448242</v>
       </c>
       <c r="G7" t="n">
-        <v>243.96505737304688</v>
+        <v>135.56321716308594</v>
       </c>
       <c r="H7" t="n">
-        <v>71.93208312988281</v>
+        <v>62.38837432861328</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="n">
-        <v>539.7276000976562</v>
+        <v>591.56640625</v>
       </c>
       <c r="D8" t="n">
-        <v>77.258544921875</v>
+        <v>77.07902526855469</v>
       </c>
       <c r="E8" t="n">
-        <v>431.4093017578125</v>
+        <v>447.605712890625</v>
       </c>
       <c r="F8" t="n">
-        <v>63.88818359375</v>
+        <v>67.09841918945312</v>
       </c>
       <c r="G8" t="n">
-        <v>320.4952392578125</v>
+        <v>131.72447204589844</v>
       </c>
       <c r="H8" t="n">
-        <v>61.56847381591797</v>
+        <v>59.98844909667969</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="n">
-        <v>624.3399658203125</v>
+        <v>677.612548828125</v>
       </c>
       <c r="D9" t="n">
-        <v>79.27491760253906</v>
+        <v>77.13139343261719</v>
       </c>
       <c r="E9" t="n">
-        <v>492.3751525878906</v>
+        <v>521.5380249023438</v>
       </c>
       <c r="F9" t="n">
-        <v>63.6729736328125</v>
+        <v>74.97093200683594</v>
       </c>
       <c r="G9" t="n">
-        <v>398.2686767578125</v>
+        <v>169.59432983398438</v>
       </c>
       <c r="H9" t="n">
-        <v>62.66947555541992</v>
+        <v>65.6270980834961</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="n">
-        <v>712.868408203125</v>
+        <v>773.3739013671875</v>
       </c>
       <c r="D10" t="n">
-        <v>83.40682220458984</v>
+        <v>94.517578125</v>
       </c>
       <c r="E10" t="n">
-        <v>574.24658203125</v>
+        <v>598.6109008789062</v>
       </c>
       <c r="F10" t="n">
-        <v>76.50621795654297</v>
+        <v>60.87528991699219</v>
       </c>
       <c r="G10" t="n">
-        <v>475.6104431152344</v>
+        <v>193.4047088623047</v>
       </c>
       <c r="H10" t="n">
-        <v>56.452903747558594</v>
+        <v>49.0589714050293</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="n">
-        <v>796.67041015625</v>
+        <v>860.6736450195312</v>
       </c>
       <c r="D11" t="n">
-        <v>97.19747161865234</v>
+        <v>88.99639129638672</v>
       </c>
       <c r="E11" t="n">
-        <v>646.3314208984375</v>
+        <v>682.9591064453125</v>
       </c>
       <c r="F11" t="n">
-        <v>73.04130554199219</v>
+        <v>87.07013702392578</v>
       </c>
       <c r="G11" t="n">
-        <v>546.697998046875</v>
+        <v>200.3660888671875</v>
       </c>
       <c r="H11" t="n">
-        <v>75.43138885498047</v>
+        <v>65.96126556396484</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="n">
-        <v>890.7193603515625</v>
+        <v>947.14501953125</v>
       </c>
       <c r="D12" t="n">
-        <v>96.64146423339844</v>
+        <v>91.65138244628906</v>
       </c>
       <c r="E12" t="n">
-        <v>734.8554077148438</v>
+        <v>766.6737060546875</v>
       </c>
       <c r="F12" t="n">
-        <v>88.59809875488281</v>
+        <v>94.3373794555664</v>
       </c>
       <c r="G12" t="n">
-        <v>625.9418334960938</v>
+        <v>230.65863037109375</v>
       </c>
       <c r="H12" t="n">
-        <v>70.40850067138672</v>
+        <v>60.378814697265625</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="n">
-        <v>969.01513671875</v>
+        <v>988.0905151367188</v>
       </c>
       <c r="D13" t="n">
-        <v>95.04447174072266</v>
+        <v>104.66535186767578</v>
       </c>
       <c r="E13" t="n">
-        <v>816.9636840820312</v>
+        <v>850.7224731445312</v>
       </c>
       <c r="F13" t="n">
-        <v>98.66191101074219</v>
+        <v>95.65469360351562</v>
       </c>
       <c r="G13" t="n">
-        <v>701.7546997070312</v>
+        <v>288.37310791015625</v>
       </c>
       <c r="H13" t="n">
-        <v>81.33557891845703</v>
+        <v>52.2205696105957</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="n">
-        <v>993.7457275390625</v>
+        <v>934.365478515625</v>
       </c>
       <c r="D14" t="n">
-        <v>90.36138916015625</v>
+        <v>146.07464599609375</v>
       </c>
       <c r="E14" t="n">
-        <v>892.110595703125</v>
+        <v>950.04736328125</v>
       </c>
       <c r="F14" t="n">
-        <v>96.51632690429688</v>
+        <v>98.16869354248047</v>
       </c>
       <c r="G14" t="n">
-        <v>765.4819946289062</v>
+        <v>342.7076721191406</v>
       </c>
       <c r="H14" t="n">
-        <v>101.50770568847656</v>
+        <v>75.42984008789062</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="n">
-        <v>956.654541015625</v>
+        <v>849.6722412109375</v>
       </c>
       <c r="D15" t="n">
-        <v>130.15011596679688</v>
+        <v>179.97113037109375</v>
       </c>
       <c r="E15" t="n">
-        <v>957.0794677734375</v>
+        <v>959.9189453125</v>
       </c>
       <c r="F15" t="n">
-        <v>104.75990295410156</v>
+        <v>129.37425231933594</v>
       </c>
       <c r="G15" t="n">
-        <v>864.5948486328125</v>
+        <v>370.8792419433594</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7129135131836</v>
+        <v>52.463722229003906</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="n">
-        <v>933.4310913085938</v>
+        <v>778.3302612304688</v>
       </c>
       <c r="D16" t="n">
-        <v>147.91734313964844</v>
+        <v>223.56988525390625</v>
       </c>
       <c r="E16" t="n">
-        <v>879.4754028320312</v>
+        <v>923.777587890625</v>
       </c>
       <c r="F16" t="n">
-        <v>170.14012145996094</v>
+        <v>158.1947784423828</v>
       </c>
       <c r="G16" t="n">
-        <v>905.2673950195312</v>
+        <v>373.5072937011719</v>
       </c>
       <c r="H16" t="n">
-        <v>97.9197769165039</v>
+        <v>71.04731750488281</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="n">
-        <v>878.4852905273438</v>
+        <v>720.8560791015625</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0402374267578</v>
+        <v>271.2589111328125</v>
       </c>
       <c r="E17" t="n">
-        <v>825.1728515625</v>
+        <v>894.7667846679688</v>
       </c>
       <c r="F17" t="n">
-        <v>192.3631134033203</v>
+        <v>147.98072814941406</v>
       </c>
       <c r="G17" t="n">
-        <v>954.1876831054688</v>
+        <v>414.96319580078125</v>
       </c>
       <c r="H17" t="n">
-        <v>102.55598449707031</v>
+        <v>43.06602478027344</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="n">
-        <v>855.2822265625</v>
+        <v>645.0160522460938</v>
       </c>
       <c r="D18" t="n">
-        <v>170.83604431152344</v>
+        <v>292.83184814453125</v>
       </c>
       <c r="E18" t="n">
-        <v>758.4215698242188</v>
+        <v>874.3897705078125</v>
       </c>
       <c r="F18" t="n">
-        <v>231.92247009277344</v>
+        <v>175.07029724121094</v>
       </c>
       <c r="G18" t="n">
-        <v>907.447265625</v>
+        <v>507.02874755859375</v>
       </c>
       <c r="H18" t="n">
-        <v>152.605224609375</v>
+        <v>74.45742797851562</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="n">
-        <v>825.18896484375</v>
+        <v>581.1088256835938</v>
       </c>
       <c r="D19" t="n">
-        <v>186.72056579589844</v>
+        <v>340.27703857421875</v>
       </c>
       <c r="E19" t="n">
-        <v>691.4775390625</v>
+        <v>803.2664794921875</v>
       </c>
       <c r="F19" t="n">
-        <v>263.87298583984375</v>
+        <v>214.51229858398438</v>
       </c>
       <c r="G19" t="n">
-        <v>848.8419799804688</v>
+        <v>643.9512329101562</v>
       </c>
       <c r="H19" t="n">
-        <v>178.6028289794922</v>
+        <v>72.27979278564453</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="n">
-        <v>769.5858154296875</v>
+        <v>503.61712646484375</v>
       </c>
       <c r="D20" t="n">
-        <v>216.7564697265625</v>
+        <v>379.6251220703125</v>
       </c>
       <c r="E20" t="n">
-        <v>640.037109375</v>
+        <v>741.1339111328125</v>
       </c>
       <c r="F20" t="n">
-        <v>317.0184020996094</v>
+        <v>253.90859985351562</v>
       </c>
       <c r="G20" t="n">
-        <v>801.745849609375</v>
+        <v>742.7242431640625</v>
       </c>
       <c r="H20" t="n">
-        <v>202.36468505859375</v>
+        <v>95.13092041015625</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="n">
-        <v>691.7137451171875</v>
+        <v>429.81500244140625</v>
       </c>
       <c r="D21" t="n">
-        <v>273.03045654296875</v>
+        <v>428.4629821777344</v>
       </c>
       <c r="E21" t="n">
-        <v>582.5392456054688</v>
+        <v>674.0144653320312</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0180969238281</v>
+        <v>290.1012878417969</v>
       </c>
       <c r="G21" t="n">
-        <v>748.4728393554688</v>
+        <v>848.3360595703125</v>
       </c>
       <c r="H21" t="n">
-        <v>247.6851043701172</v>
+        <v>99.70378875732422</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="n">
-        <v>628.3638916015625</v>
+        <v>338.05657958984375</v>
       </c>
       <c r="D22" t="n">
-        <v>314.0573425292969</v>
+        <v>463.3720703125</v>
       </c>
       <c r="E22" t="n">
-        <v>503.2642517089844</v>
+        <v>619.66455078125</v>
       </c>
       <c r="F22" t="n">
-        <v>363.2529296875</v>
+        <v>313.51739501953125</v>
       </c>
       <c r="G22" t="n">
-        <v>676.6200561523438</v>
+        <v>895.7958984375</v>
       </c>
       <c r="H22" t="n">
-        <v>273.8067626953125</v>
+        <v>114.30548858642578</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="n">
-        <v>557.8142700195312</v>
+        <v>258.5375671386719</v>
       </c>
       <c r="D23" t="n">
-        <v>343.89581298828125</v>
+        <v>503.43829345703125</v>
       </c>
       <c r="E23" t="n">
-        <v>444.4671325683594</v>
+        <v>534.9998168945312</v>
       </c>
       <c r="F23" t="n">
-        <v>420.92279052734375</v>
+        <v>357.5738830566406</v>
       </c>
       <c r="G23" t="n">
-        <v>635.9788208007812</v>
+        <v>920.5278930664062</v>
       </c>
       <c r="H23" t="n">
-        <v>322.2590026855469</v>
+        <v>83.32763671875</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="n">
-        <v>480.8887634277344</v>
+        <v>187.0190887451172</v>
       </c>
       <c r="D24" t="n">
-        <v>389.55426025390625</v>
+        <v>548.834716796875</v>
       </c>
       <c r="E24" t="n">
-        <v>373.5416564941406</v>
+        <v>465.91485595703125</v>
       </c>
       <c r="F24" t="n">
-        <v>449.8017272949219</v>
+        <v>409.02166748046875</v>
       </c>
       <c r="G24" t="n">
-        <v>571.8737182617188</v>
+        <v>930.3234252929688</v>
       </c>
       <c r="H24" t="n">
-        <v>339.51953125</v>
+        <v>131.44775390625</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="n">
-        <v>412.0479431152344</v>
+        <v>117.8576431274414</v>
       </c>
       <c r="D25" t="n">
-        <v>430.554931640625</v>
+        <v>590.4977416992188</v>
       </c>
       <c r="E25" t="n">
-        <v>300.50653076171875</v>
+        <v>382.01666259765625</v>
       </c>
       <c r="F25" t="n">
-        <v>494.8565368652344</v>
+        <v>440.39776611328125</v>
       </c>
       <c r="G25" t="n">
-        <v>513.6972045898438</v>
+        <v>859.9738159179688</v>
       </c>
       <c r="H25" t="n">
-        <v>354.8746643066406</v>
+        <v>179.59463500976562</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="n">
-        <v>329.2093811035156</v>
+        <v>104.86592102050781</v>
       </c>
       <c r="D26" t="n">
-        <v>470.8680419921875</v>
+        <v>601.8575439453125</v>
       </c>
       <c r="E26" t="n">
-        <v>219.895751953125</v>
+        <v>305.6940612792969</v>
       </c>
       <c r="F26" t="n">
-        <v>539.4589233398438</v>
+        <v>476.1720275878906</v>
       </c>
       <c r="G26" t="n">
-        <v>461.6369323730469</v>
+        <v>775.0728759765625</v>
       </c>
       <c r="H26" t="n">
-        <v>407.485595703125</v>
+        <v>210.94378662109375</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="n">
-        <v>244.63357543945312</v>
+        <v>167.89723205566406</v>
       </c>
       <c r="D27" t="n">
-        <v>513.9421997070312</v>
+        <v>610.72900390625</v>
       </c>
       <c r="E27" t="n">
-        <v>137.55416870117188</v>
+        <v>232.3728790283203</v>
       </c>
       <c r="F27" t="n">
-        <v>568.47119140625</v>
+        <v>526.8511962890625</v>
       </c>
       <c r="G27" t="n">
-        <v>409.6737365722656</v>
+        <v>774.1466064453125</v>
       </c>
       <c r="H27" t="n">
-        <v>439.24212646484375</v>
+        <v>230.25253295898438</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="n">
-        <v>176.40780639648438</v>
+        <v>195.49916076660156</v>
       </c>
       <c r="D28" t="n">
-        <v>560.6514282226562</v>
+        <v>596.1040649414062</v>
       </c>
       <c r="E28" t="n">
-        <v>103.65109252929688</v>
+        <v>152.67689514160156</v>
       </c>
       <c r="F28" t="n">
-        <v>595.0631103515625</v>
+        <v>569.4450073242188</v>
       </c>
       <c r="G28" t="n">
-        <v>344.8772277832031</v>
+        <v>739.236572265625</v>
       </c>
       <c r="H28" t="n">
-        <v>471.93768310546875</v>
+        <v>263.13897705078125</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="n">
-        <v>98.9383544921875</v>
+        <v>234.02163696289062</v>
       </c>
       <c r="D29" t="n">
-        <v>594.735595703125</v>
+        <v>586.4298095703125</v>
       </c>
       <c r="E29" t="n">
-        <v>193.42115783691406</v>
+        <v>141.17343139648438</v>
       </c>
       <c r="F29" t="n">
-        <v>596.48095703125</v>
+        <v>610.0840454101562</v>
       </c>
       <c r="G29" t="n">
-        <v>261.6996765136719</v>
+        <v>746.1497192382812</v>
       </c>
       <c r="H29" t="n">
-        <v>519.8416137695312</v>
+        <v>261.5033874511719</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="n">
-        <v>133.84959411621094</v>
+        <v>300.00091552734375</v>
       </c>
       <c r="D30" t="n">
-        <v>605.945068359375</v>
+        <v>604.1455078125</v>
       </c>
       <c r="E30" t="n">
-        <v>273.02764892578125</v>
+        <v>188.5083465576172</v>
       </c>
       <c r="F30" t="n">
-        <v>599.090087890625</v>
+        <v>610.6790771484375</v>
       </c>
       <c r="G30" t="n">
-        <v>183.8459930419922</v>
+        <v>637.2361450195312</v>
       </c>
       <c r="H30" t="n">
-        <v>547.6488037109375</v>
+        <v>301.2611999511719</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="n">
-        <v>172.33670043945312</v>
+        <v>391.60107421875</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6243286132812</v>
+        <v>607.251220703125</v>
       </c>
       <c r="E31" t="n">
-        <v>326.7832336425781</v>
+        <v>235.1546173095703</v>
       </c>
       <c r="F31" t="n">
-        <v>605.5379638671875</v>
+        <v>587.5947265625</v>
       </c>
       <c r="G31" t="n">
-        <v>108.55195617675781</v>
+        <v>513.189453125</v>
       </c>
       <c r="H31" t="n">
-        <v>585.675048828125</v>
+        <v>380.71923828125</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="n">
-        <v>228.89576721191406</v>
+        <v>472.71820068359375</v>
       </c>
       <c r="D32" t="n">
-        <v>590.8740844726562</v>
+        <v>600.7852783203125</v>
       </c>
       <c r="E32" t="n">
-        <v>396.5936584472656</v>
+        <v>297.9820251464844</v>
       </c>
       <c r="F32" t="n">
-        <v>596.2367553710938</v>
+        <v>594.052001953125</v>
       </c>
       <c r="G32" t="n">
-        <v>141.19813537597656</v>
+        <v>396.1446838378906</v>
       </c>
       <c r="H32" t="n">
-        <v>590.3207397460938</v>
+        <v>437.1202087402344</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="n">
-        <v>292.2315368652344</v>
+        <v>568.5311279296875</v>
       </c>
       <c r="D33" t="n">
-        <v>600.0073852539062</v>
+        <v>591.9420776367188</v>
       </c>
       <c r="E33" t="n">
-        <v>452.2806701660156</v>
+        <v>367.3001403808594</v>
       </c>
       <c r="F33" t="n">
-        <v>598.2780151367188</v>
+        <v>601.0390014648438</v>
       </c>
       <c r="G33" t="n">
-        <v>215.680419921875</v>
+        <v>279.3328552246094</v>
       </c>
       <c r="H33" t="n">
-        <v>604.2930908203125</v>
+        <v>496.5492858886719</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="n">
-        <v>350.1189880371094</v>
+        <v>659.9571533203125</v>
       </c>
       <c r="D34" t="n">
-        <v>603.2903442382812</v>
+        <v>595.8944702148438</v>
       </c>
       <c r="E34" t="n">
-        <v>500.1676330566406</v>
+        <v>454.711181640625</v>
       </c>
       <c r="F34" t="n">
-        <v>591.8438110351562</v>
+        <v>611.2739868164062</v>
       </c>
       <c r="G34" t="n">
-        <v>272.11419677734375</v>
+        <v>169.18138122558594</v>
       </c>
       <c r="H34" t="n">
-        <v>609.4330444335938</v>
+        <v>571.35888671875</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="n">
-        <v>414.1708984375</v>
+        <v>754.5712890625</v>
       </c>
       <c r="D35" t="n">
-        <v>592.8554077148438</v>
+        <v>601.9490966796875</v>
       </c>
       <c r="E35" t="n">
-        <v>578.017822265625</v>
+        <v>505.6273193359375</v>
       </c>
       <c r="F35" t="n">
-        <v>598.2694091796875</v>
+        <v>611.439453125</v>
       </c>
       <c r="G35" t="n">
-        <v>358.4175720214844</v>
+        <v>166.62977600097656</v>
       </c>
       <c r="H35" t="n">
-        <v>605.50732421875</v>
+        <v>607.1847534179688</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="n">
-        <v>480.5509033203125</v>
+        <v>856.3494873046875</v>
       </c>
       <c r="D36" t="n">
-        <v>593.1453857421875</v>
+        <v>597.72900390625</v>
       </c>
       <c r="E36" t="n">
-        <v>655.7503662109375</v>
+        <v>576.0430297851562</v>
       </c>
       <c r="F36" t="n">
-        <v>594.8117065429688</v>
+        <v>593.078125</v>
       </c>
       <c r="G36" t="n">
-        <v>444.0947570800781</v>
+        <v>201.057861328125</v>
       </c>
       <c r="H36" t="n">
-        <v>598.2493896484375</v>
+        <v>607.2120971679688</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="n">
-        <v>553.321533203125</v>
+        <v>952.1046752929688</v>
       </c>
       <c r="D37" t="n">
-        <v>588.692626953125</v>
+        <v>607.0174560546875</v>
       </c>
       <c r="E37" t="n">
-        <v>725.6629028320312</v>
+        <v>648.194091796875</v>
       </c>
       <c r="F37" t="n">
-        <v>591.2049560546875</v>
+        <v>592.3428344726562</v>
       </c>
       <c r="G37" t="n">
-        <v>506.6825866699219</v>
+        <v>335.672607421875</v>
       </c>
       <c r="H37" t="n">
-        <v>592.7163696289062</v>
+        <v>602.2750244140625</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="n">
-        <v>623.1259765625</v>
+        <v>977.2423095703125</v>
       </c>
       <c r="D38" t="n">
-        <v>600.4544067382812</v>
+        <v>585.445068359375</v>
       </c>
       <c r="E38" t="n">
-        <v>793.4777221679688</v>
+        <v>724.8683471679688</v>
       </c>
       <c r="F38" t="n">
-        <v>609.3436279296875</v>
+        <v>602.2617797851562</v>
       </c>
       <c r="G38" t="n">
-        <v>597.5086669921875</v>
+        <v>498.3384704589844</v>
       </c>
       <c r="H38" t="n">
-        <v>596.7423706054688</v>
+        <v>609.8273315429688</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="n">
-        <v>711.334228515625</v>
+        <v>909.7068481445312</v>
       </c>
       <c r="D39" t="n">
-        <v>599.4378051757812</v>
+        <v>567.0872802734375</v>
       </c>
       <c r="E39" t="n">
-        <v>884.9899291992188</v>
+        <v>798.2122192382812</v>
       </c>
       <c r="F39" t="n">
-        <v>608.3597412109375</v>
+        <v>602.547119140625</v>
       </c>
       <c r="G39" t="n">
-        <v>697.4915771484375</v>
+        <v>547.241455078125</v>
       </c>
       <c r="H39" t="n">
-        <v>587.1959228515625</v>
+        <v>608.4244384765625</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="n">
-        <v>782.9358520507812</v>
+        <v>874.4420166015625</v>
       </c>
       <c r="D40" t="n">
-        <v>605.0408935546875</v>
+        <v>530.7603149414062</v>
       </c>
       <c r="E40" t="n">
-        <v>924.3079833984375</v>
+        <v>871.0169677734375</v>
       </c>
       <c r="F40" t="n">
-        <v>599.3980712890625</v>
+        <v>598.7889404296875</v>
       </c>
       <c r="G40" t="n">
-        <v>773.0531005859375</v>
+        <v>595.591796875</v>
       </c>
       <c r="H40" t="n">
-        <v>600.0733642578125</v>
+        <v>592.4306030273438</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="n">
-        <v>868.614501953125</v>
+        <v>819.097900390625</v>
       </c>
       <c r="D41" t="n">
-        <v>604.0620727539062</v>
+        <v>489.0569763183594</v>
       </c>
       <c r="E41" t="n">
-        <v>931.9269409179688</v>
+        <v>944.50390625</v>
       </c>
       <c r="F41" t="n">
-        <v>602.5536499023438</v>
+        <v>618.2918090820312</v>
       </c>
       <c r="G41" t="n">
-        <v>861.07763671875</v>
+        <v>697.7542114257812</v>
       </c>
       <c r="H41" t="n">
-        <v>600.4833984375</v>
+        <v>600.8740844726562</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="n">
-        <v>931.2813110351562</v>
+        <v>756.7568969726562</v>
       </c>
       <c r="D42" t="n">
-        <v>602.69580078125</v>
+        <v>451.4012451171875</v>
       </c>
       <c r="E42" t="n">
-        <v>954.3447265625</v>
+        <v>965.051025390625</v>
       </c>
       <c r="F42" t="n">
-        <v>586.1864624023438</v>
+        <v>598.5947875976562</v>
       </c>
       <c r="G42" t="n">
-        <v>935.2828979492188</v>
+        <v>875.9119873046875</v>
       </c>
       <c r="H42" t="n">
-        <v>600.4100341796875</v>
+        <v>610.5487670898438</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="n">
-        <v>995.53955078125</v>
+        <v>693.248291015625</v>
       </c>
       <c r="D43" t="n">
-        <v>596.2940673828125</v>
+        <v>404.62213134765625</v>
       </c>
       <c r="E43" t="n">
-        <v>1000.884765625</v>
+        <v>943.5868530273438</v>
       </c>
       <c r="F43" t="n">
-        <v>611.5398559570312</v>
+        <v>566.2691650390625</v>
       </c>
       <c r="G43" t="n">
-        <v>992.2411499023438</v>
+        <v>946.1598510742188</v>
       </c>
       <c r="H43" t="n">
-        <v>611.3360595703125</v>
+        <v>575.00830078125</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="n">
-        <v>939.6300659179688</v>
+        <v>623.0484619140625</v>
       </c>
       <c r="D44" t="n">
-        <v>553.3497924804688</v>
+        <v>379.685546875</v>
       </c>
       <c r="E44" t="n">
-        <v>963.5546264648438</v>
+        <v>904.7966918945312</v>
       </c>
       <c r="F44" t="n">
-        <v>588.7384643554688</v>
+        <v>556.35009765625</v>
       </c>
       <c r="G44" t="n">
-        <v>960.3330688476562</v>
+        <v>892.590576171875</v>
       </c>
       <c r="H44" t="n">
-        <v>588.0185546875</v>
+        <v>555.126708984375</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="n">
-        <v>895.5481567382812</v>
+        <v>542.6860961914062</v>
       </c>
       <c r="D45" t="n">
-        <v>523.015380859375</v>
+        <v>334.7767333984375</v>
       </c>
       <c r="E45" t="n">
-        <v>905.06640625</v>
+        <v>848.6596069335938</v>
       </c>
       <c r="F45" t="n">
-        <v>532.2481079101562</v>
+        <v>525.4242553710938</v>
       </c>
       <c r="G45" t="n">
-        <v>916.660888671875</v>
+        <v>819.4512939453125</v>
       </c>
       <c r="H45" t="n">
-        <v>533.1605834960938</v>
+        <v>482.87359619140625</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="n">
-        <v>820.810791015625</v>
-      </c>
-      <c r="D46" t="n">
-        <v>483.7966003417969</v>
-      </c>
       <c r="E46" t="n">
-        <v>822.61572265625</v>
+        <v>816.4285278320312</v>
       </c>
       <c r="F46" t="n">
-        <v>493.8498840332031</v>
+        <v>486.2488708496094</v>
       </c>
       <c r="G46" t="n">
-        <v>855.1316528320312</v>
+        <v>803.7799072265625</v>
       </c>
       <c r="H46" t="n">
-        <v>501.6500549316406</v>
+        <v>471.98114013671875</v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" t="n">
-        <v>740.6947021484375</v>
-      </c>
-      <c r="D47" t="n">
-        <v>448.33349609375</v>
-      </c>
       <c r="E47" t="n">
-        <v>764.060791015625</v>
+        <v>763.4114379882812</v>
       </c>
       <c r="F47" t="n">
-        <v>458.09039306640625</v>
+        <v>445.4097595214844</v>
       </c>
       <c r="G47" t="n">
-        <v>773.6389770507812</v>
+        <v>800.80810546875</v>
       </c>
       <c r="H47" t="n">
-        <v>480.3769226074219</v>
+        <v>483.1846008300781</v>
       </c>
     </row>
     <row r="48">
-      <c r="C48" t="n">
-        <v>678.4555053710938</v>
-      </c>
-      <c r="D48" t="n">
-        <v>393.9950866699219</v>
-      </c>
       <c r="E48" t="n">
-        <v>680.1150512695312</v>
+        <v>698.1796264648438</v>
       </c>
       <c r="F48" t="n">
-        <v>406.6567077636719</v>
+        <v>398.6022644042969</v>
       </c>
       <c r="G48" t="n">
-        <v>733.30810546875</v>
+        <v>778.5227661132812</v>
       </c>
       <c r="H48" t="n">
-        <v>441.5442810058594</v>
+        <v>480.4908447265625</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="n">
-        <v>606.546875</v>
-      </c>
-      <c r="D49" t="n">
-        <v>374.71923828125</v>
-      </c>
       <c r="E49" t="n">
-        <v>616.2421264648438</v>
+        <v>633.1068115234375</v>
       </c>
       <c r="F49" t="n">
-        <v>382.1445617675781</v>
+        <v>385.38604736328125</v>
       </c>
       <c r="G49" t="n">
-        <v>667.396484375</v>
+        <v>733.6204223632812</v>
       </c>
       <c r="H49" t="n">
-        <v>393.1945495605469</v>
+        <v>430.0828857421875</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="n">
-        <v>540.9075927734375</v>
-      </c>
-      <c r="D50" t="n">
-        <v>315.65191650390625</v>
+      <c r="E50" t="n">
+        <v>563.81396484375</v>
+      </c>
+      <c r="F50" t="n">
+        <v>345.8899230957031</v>
+      </c>
+      <c r="G50" t="n">
+        <v>635.268798828125</v>
+      </c>
+      <c r="H50" t="n">
+        <v>384.3801574707031</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" t="n">
+        <v>595.2683715820312</v>
+      </c>
+      <c r="H51" t="n">
+        <v>368.5632629394531</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52" t="n">
+        <v>581.2645263671875</v>
+      </c>
+      <c r="H52" t="n">
+        <v>358.1959228515625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53" t="n">
+        <v>558.8524780273438</v>
+      </c>
+      <c r="H53" t="n">
+        <v>355.3179931640625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54" t="n">
+        <v>557.9562377929688</v>
+      </c>
+      <c r="H54" t="n">
+        <v>363.39154052734375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55" t="n">
+        <v>553.8878784179688</v>
+      </c>
+      <c r="H55" t="n">
+        <v>342.9119873046875</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="G56" t="n">
+        <v>564.337158203125</v>
+      </c>
+      <c r="H56" t="n">
+        <v>338.5865478515625</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/tmp/data.xlsx
+++ b/src/main/resources/tmp/data.xlsx
@@ -114,1088 +114,2506 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="B2" t="n">
         <v>100.0</v>
       </c>
-      <c r="B2" t="n">
-        <v>50.0</v>
-      </c>
       <c r="C2" t="n">
-        <v>90.10861206054688</v>
+        <v>99.94804382324219</v>
       </c>
       <c r="D2" t="n">
-        <v>36.38106155395508</v>
+        <v>48.10496520996094</v>
+      </c>
+      <c r="E2" t="n">
+        <v>95.59380340576172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100.81438446044922</v>
+      </c>
+      <c r="G2" t="n">
+        <v>96.51571655273438</v>
+      </c>
+      <c r="H2" t="n">
+        <v>149.43276977539062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="B3" t="n">
-        <v>100.0</v>
+        <v>600.0</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5169677734375</v>
+        <v>130.64793395996094</v>
       </c>
       <c r="D3" t="n">
-        <v>64.41814422607422</v>
+        <v>54.76106262207031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98.08094787597656</v>
+      </c>
+      <c r="F3" t="n">
+        <v>71.47706604003906</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.7447509765625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>131.62205505371094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B4" t="n">
         <v>600.0</v>
       </c>
       <c r="C4" t="n">
-        <v>145.0172576904297</v>
+        <v>166.48301696777344</v>
       </c>
       <c r="D4" t="n">
-        <v>49.828102111816406</v>
+        <v>52.82572937011719</v>
+      </c>
+      <c r="E4" t="n">
+        <v>118.28624725341797</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54.59973907470703</v>
+      </c>
+      <c r="G4" t="n">
+        <v>96.38016510009766</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92.39476776123047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="B5" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="C5" t="n">
-        <v>158.53985595703125</v>
+        <v>208.8916015625</v>
       </c>
       <c r="D5" t="n">
-        <v>37.32457733154297</v>
+        <v>54.09421157836914</v>
+      </c>
+      <c r="E5" t="n">
+        <v>138.72140502929688</v>
+      </c>
+      <c r="F5" t="n">
+        <v>55.18461608886719</v>
+      </c>
+      <c r="G5" t="n">
+        <v>121.89881896972656</v>
+      </c>
+      <c r="H5" t="n">
+        <v>56.749267578125</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>300.0</v>
-      </c>
       <c r="C6" t="n">
-        <v>164.00633239746094</v>
+        <v>245.99891662597656</v>
       </c>
       <c r="D6" t="n">
-        <v>35.30061340332031</v>
+        <v>56.244895935058594</v>
+      </c>
+      <c r="E6" t="n">
+        <v>162.6630096435547</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55.44419479370117</v>
+      </c>
+      <c r="G6" t="n">
+        <v>160.95782470703125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52.27001190185547</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="n">
-        <v>204.6858673095703</v>
+        <v>291.06719970703125</v>
       </c>
       <c r="D7" t="n">
-        <v>69.40394592285156</v>
+        <v>61.13817596435547</v>
+      </c>
+      <c r="E7" t="n">
+        <v>187.0309295654297</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48.73992919921875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>197.1728515625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>53.916465759277344</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="n">
-        <v>222.17958068847656</v>
+        <v>332.086669921875</v>
       </c>
       <c r="D8" t="n">
-        <v>72.70698547363281</v>
+        <v>64.41886138916016</v>
+      </c>
+      <c r="E8" t="n">
+        <v>212.09295654296875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55.280879974365234</v>
+      </c>
+      <c r="G8" t="n">
+        <v>233.10980224609375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>54.48576354980469</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="n">
-        <v>232.9575653076172</v>
+        <v>369.3901062011719</v>
       </c>
       <c r="D9" t="n">
-        <v>52.470943450927734</v>
+        <v>63.68028259277344</v>
+      </c>
+      <c r="E9" t="n">
+        <v>242.5970458984375</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55.27570724487305</v>
+      </c>
+      <c r="G9" t="n">
+        <v>272.66400146484375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>57.40952682495117</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="n">
-        <v>267.375244140625</v>
+        <v>412.78302001953125</v>
       </c>
       <c r="D10" t="n">
-        <v>52.749725341796875</v>
+        <v>67.07575225830078</v>
+      </c>
+      <c r="E10" t="n">
+        <v>274.60516357421875</v>
+      </c>
+      <c r="F10" t="n">
+        <v>58.247928619384766</v>
+      </c>
+      <c r="G10" t="n">
+        <v>307.5138244628906</v>
+      </c>
+      <c r="H10" t="n">
+        <v>67.14009857177734</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="n">
-        <v>280.0212097167969</v>
+        <v>452.02447509765625</v>
       </c>
       <c r="D11" t="n">
-        <v>44.36703109741211</v>
+        <v>72.42573547363281</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300.92352294921875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>66.21627044677734</v>
+      </c>
+      <c r="G11" t="n">
+        <v>350.2369384765625</v>
+      </c>
+      <c r="H11" t="n">
+        <v>65.57176208496094</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="n">
-        <v>308.7294616699219</v>
+        <v>488.10528564453125</v>
       </c>
       <c r="D12" t="n">
-        <v>55.632362365722656</v>
+        <v>71.61216735839844</v>
+      </c>
+      <c r="E12" t="n">
+        <v>326.1177978515625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>66.95924377441406</v>
+      </c>
+      <c r="G12" t="n">
+        <v>387.64422607421875</v>
+      </c>
+      <c r="H12" t="n">
+        <v>64.2481918334961</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="n">
-        <v>301.3849182128906</v>
+        <v>531.5263671875</v>
       </c>
       <c r="D13" t="n">
-        <v>58.10698318481445</v>
+        <v>76.03491973876953</v>
+      </c>
+      <c r="E13" t="n">
+        <v>362.00244140625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>67.58738708496094</v>
+      </c>
+      <c r="G13" t="n">
+        <v>427.7518005371094</v>
+      </c>
+      <c r="H13" t="n">
+        <v>65.43541717529297</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="n">
-        <v>349.6376037597656</v>
+        <v>571.738037109375</v>
       </c>
       <c r="D14" t="n">
-        <v>54.48564910888672</v>
+        <v>74.13377380371094</v>
+      </c>
+      <c r="E14" t="n">
+        <v>388.9640808105469</v>
+      </c>
+      <c r="F14" t="n">
+        <v>61.9036979675293</v>
+      </c>
+      <c r="G14" t="n">
+        <v>465.9482421875</v>
+      </c>
+      <c r="H14" t="n">
+        <v>73.12994384765625</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="n">
-        <v>339.8366394042969</v>
+        <v>620.8403930664062</v>
       </c>
       <c r="D15" t="n">
-        <v>66.04391479492188</v>
+        <v>79.4767074584961</v>
+      </c>
+      <c r="E15" t="n">
+        <v>417.3531494140625</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.4338493347168</v>
+      </c>
+      <c r="G15" t="n">
+        <v>500.68896484375</v>
+      </c>
+      <c r="H15" t="n">
+        <v>73.29312896728516</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="n">
-        <v>385.02459716796875</v>
+        <v>671.5142211914062</v>
       </c>
       <c r="D16" t="n">
-        <v>74.05963134765625</v>
+        <v>78.95390319824219</v>
+      </c>
+      <c r="E16" t="n">
+        <v>450.12957763671875</v>
+      </c>
+      <c r="F16" t="n">
+        <v>69.03583526611328</v>
+      </c>
+      <c r="G16" t="n">
+        <v>539.276611328125</v>
+      </c>
+      <c r="H16" t="n">
+        <v>75.21978759765625</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="n">
-        <v>416.9560546875</v>
+        <v>718.80615234375</v>
       </c>
       <c r="D17" t="n">
-        <v>75.22103118896484</v>
+        <v>87.10736083984375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>471.00146484375</v>
+      </c>
+      <c r="F17" t="n">
+        <v>70.1814956665039</v>
+      </c>
+      <c r="G17" t="n">
+        <v>576.0784912109375</v>
+      </c>
+      <c r="H17" t="n">
+        <v>80.35999298095703</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="n">
-        <v>431.2063903808594</v>
+        <v>769.3582153320312</v>
       </c>
       <c r="D18" t="n">
-        <v>50.478118896484375</v>
+        <v>87.26240539550781</v>
+      </c>
+      <c r="E18" t="n">
+        <v>492.93658447265625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>73.9975357055664</v>
+      </c>
+      <c r="G18" t="n">
+        <v>619.6088256835938</v>
+      </c>
+      <c r="H18" t="n">
+        <v>74.20675659179688</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="n">
-        <v>437.021728515625</v>
+        <v>816.44140625</v>
       </c>
       <c r="D19" t="n">
-        <v>78.39836120605469</v>
+        <v>90.689697265625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>523.6781005859375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>71.07893371582031</v>
+      </c>
+      <c r="G19" t="n">
+        <v>653.0552368164062</v>
+      </c>
+      <c r="H19" t="n">
+        <v>80.03514099121094</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="n">
-        <v>470.26544189453125</v>
+        <v>871.3065185546875</v>
       </c>
       <c r="D20" t="n">
-        <v>69.29887390136719</v>
+        <v>90.42899322509766</v>
+      </c>
+      <c r="E20" t="n">
+        <v>557.1072998046875</v>
+      </c>
+      <c r="F20" t="n">
+        <v>77.2440414428711</v>
+      </c>
+      <c r="G20" t="n">
+        <v>684.2528686523438</v>
+      </c>
+      <c r="H20" t="n">
+        <v>82.7327651977539</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="n">
-        <v>474.39520263671875</v>
+        <v>917.5263671875</v>
       </c>
       <c r="D21" t="n">
-        <v>89.8141098022461</v>
+        <v>96.09111785888672</v>
+      </c>
+      <c r="E21" t="n">
+        <v>582.23974609375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75.71826934814453</v>
+      </c>
+      <c r="G21" t="n">
+        <v>718.498046875</v>
+      </c>
+      <c r="H21" t="n">
+        <v>88.49214935302734</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="n">
-        <v>490.74249267578125</v>
+        <v>971.3470458984375</v>
       </c>
       <c r="D22" t="n">
-        <v>86.81659698486328</v>
+        <v>100.96866607666016</v>
+      </c>
+      <c r="E22" t="n">
+        <v>607.009033203125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75.13957214355469</v>
+      </c>
+      <c r="G22" t="n">
+        <v>770.9640502929688</v>
+      </c>
+      <c r="H22" t="n">
+        <v>84.21892547607422</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="n">
-        <v>503.4693908691406</v>
+        <v>997.8009033203125</v>
       </c>
       <c r="D23" t="n">
-        <v>55.558815002441406</v>
+        <v>100.96111297607422</v>
+      </c>
+      <c r="E23" t="n">
+        <v>640.6416015625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>82.74855041503906</v>
+      </c>
+      <c r="G23" t="n">
+        <v>808.1668701171875</v>
+      </c>
+      <c r="H23" t="n">
+        <v>88.06454467773438</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="n">
-        <v>532.5806274414062</v>
+        <v>965.1757202148438</v>
       </c>
       <c r="D24" t="n">
-        <v>63.49186325073242</v>
+        <v>115.57469940185547</v>
+      </c>
+      <c r="E24" t="n">
+        <v>669.6638793945312</v>
+      </c>
+      <c r="F24" t="n">
+        <v>74.47395324707031</v>
+      </c>
+      <c r="G24" t="n">
+        <v>845.6695556640625</v>
+      </c>
+      <c r="H24" t="n">
+        <v>94.74085998535156</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="n">
-        <v>564.5277099609375</v>
+        <v>940.0921630859375</v>
       </c>
       <c r="D25" t="n">
-        <v>65.51219177246094</v>
+        <v>132.04751586914062</v>
+      </c>
+      <c r="E25" t="n">
+        <v>698.45068359375</v>
+      </c>
+      <c r="F25" t="n">
+        <v>81.71717834472656</v>
+      </c>
+      <c r="G25" t="n">
+        <v>877.3697509765625</v>
+      </c>
+      <c r="H25" t="n">
+        <v>91.3459701538086</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="n">
-        <v>596.640380859375</v>
+        <v>908.1696166992188</v>
       </c>
       <c r="D26" t="n">
-        <v>58.58470916748047</v>
+        <v>146.44589233398438</v>
+      </c>
+      <c r="E26" t="n">
+        <v>726.0309448242188</v>
+      </c>
+      <c r="F26" t="n">
+        <v>89.52803039550781</v>
+      </c>
+      <c r="G26" t="n">
+        <v>911.35498046875</v>
+      </c>
+      <c r="H26" t="n">
+        <v>92.24796295166016</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="n">
-        <v>580.3660888671875</v>
+        <v>887.657958984375</v>
       </c>
       <c r="D27" t="n">
-        <v>67.16844177246094</v>
+        <v>159.99911499023438</v>
+      </c>
+      <c r="E27" t="n">
+        <v>754.908447265625</v>
+      </c>
+      <c r="F27" t="n">
+        <v>86.63584899902344</v>
+      </c>
+      <c r="G27" t="n">
+        <v>951.8287353515625</v>
+      </c>
+      <c r="H27" t="n">
+        <v>102.73343658447266</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="n">
-        <v>618.7348022460938</v>
+        <v>855.9991455078125</v>
       </c>
       <c r="D28" t="n">
-        <v>91.57157897949219</v>
+        <v>175.80389404296875</v>
+      </c>
+      <c r="E28" t="n">
+        <v>785.6652221679688</v>
+      </c>
+      <c r="F28" t="n">
+        <v>83.70398712158203</v>
+      </c>
+      <c r="G28" t="n">
+        <v>948.5003051757812</v>
+      </c>
+      <c r="H28" t="n">
+        <v>99.82331848144531</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="n">
-        <v>658.2979736328125</v>
+        <v>836.6905517578125</v>
       </c>
       <c r="D29" t="n">
-        <v>70.85589599609375</v>
+        <v>189.21343994140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>811.607177734375</v>
+      </c>
+      <c r="F29" t="n">
+        <v>89.61424255371094</v>
+      </c>
+      <c r="G29" t="n">
+        <v>946.6323852539062</v>
+      </c>
+      <c r="H29" t="n">
+        <v>98.7167739868164</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="n">
-        <v>666.02978515625</v>
+        <v>810.122802734375</v>
       </c>
       <c r="D30" t="n">
-        <v>68.23202514648438</v>
+        <v>202.95187377929688</v>
+      </c>
+      <c r="E30" t="n">
+        <v>842.214599609375</v>
+      </c>
+      <c r="F30" t="n">
+        <v>93.84203338623047</v>
+      </c>
+      <c r="G30" t="n">
+        <v>954.8759155273438</v>
+      </c>
+      <c r="H30" t="n">
+        <v>102.8099365234375</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="n">
-        <v>686.139892578125</v>
+        <v>782.7449951171875</v>
       </c>
       <c r="D31" t="n">
-        <v>82.84500885009766</v>
+        <v>221.27127075195312</v>
+      </c>
+      <c r="E31" t="n">
+        <v>875.567138671875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>88.05685424804688</v>
+      </c>
+      <c r="G31" t="n">
+        <v>965.9426879882812</v>
+      </c>
+      <c r="H31" t="n">
+        <v>112.12369537353516</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="n">
-        <v>685.7513427734375</v>
+        <v>745.6842041015625</v>
       </c>
       <c r="D32" t="n">
-        <v>79.40155792236328</v>
+        <v>240.39614868164062</v>
+      </c>
+      <c r="E32" t="n">
+        <v>912.9537963867188</v>
+      </c>
+      <c r="F32" t="n">
+        <v>95.21266174316406</v>
+      </c>
+      <c r="G32" t="n">
+        <v>941.7922973632812</v>
+      </c>
+      <c r="H32" t="n">
+        <v>136.66525268554688</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="n">
-        <v>715.0844116210938</v>
+        <v>712.0908813476562</v>
       </c>
       <c r="D33" t="n">
-        <v>102.96502685546875</v>
+        <v>260.7472839355469</v>
+      </c>
+      <c r="E33" t="n">
+        <v>950.22607421875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>97.89950561523438</v>
+      </c>
+      <c r="G33" t="n">
+        <v>918.9813842773438</v>
+      </c>
+      <c r="H33" t="n">
+        <v>143.71266174316406</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="n">
-        <v>758.5823974609375</v>
+        <v>671.2225341796875</v>
       </c>
       <c r="D34" t="n">
-        <v>103.64085388183594</v>
+        <v>279.92730712890625</v>
+      </c>
+      <c r="E34" t="n">
+        <v>976.0309448242188</v>
+      </c>
+      <c r="F34" t="n">
+        <v>101.3712158203125</v>
+      </c>
+      <c r="G34" t="n">
+        <v>899.253662109375</v>
+      </c>
+      <c r="H34" t="n">
+        <v>159.16458129882812</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="n">
-        <v>742.822998046875</v>
+        <v>640.7073974609375</v>
       </c>
       <c r="D35" t="n">
-        <v>83.61274719238281</v>
+        <v>297.5995788574219</v>
+      </c>
+      <c r="E35" t="n">
+        <v>984.2762451171875</v>
+      </c>
+      <c r="F35" t="n">
+        <v>104.86260986328125</v>
+      </c>
+      <c r="G35" t="n">
+        <v>876.2527465820312</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.26600646972656</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="n">
-        <v>767.707763671875</v>
+        <v>601.6046752929688</v>
       </c>
       <c r="D36" t="n">
-        <v>68.45816040039062</v>
+        <v>319.14111328125</v>
+      </c>
+      <c r="E36" t="n">
+        <v>964.9874267578125</v>
+      </c>
+      <c r="F36" t="n">
+        <v>112.64462280273438</v>
+      </c>
+      <c r="G36" t="n">
+        <v>857.06982421875</v>
+      </c>
+      <c r="H36" t="n">
+        <v>170.86463928222656</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="n">
-        <v>781.0706787109375</v>
+        <v>569.3551635742188</v>
       </c>
       <c r="D37" t="n">
-        <v>80.44188690185547</v>
+        <v>341.312744140625</v>
+      </c>
+      <c r="E37" t="n">
+        <v>948.3472900390625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>125.91785430908203</v>
+      </c>
+      <c r="G37" t="n">
+        <v>842.8485717773438</v>
+      </c>
+      <c r="H37" t="n">
+        <v>184.8242950439453</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="n">
-        <v>803.3816528320312</v>
+        <v>532.6007690429688</v>
       </c>
       <c r="D38" t="n">
-        <v>101.25251770019531</v>
+        <v>360.173583984375</v>
+      </c>
+      <c r="E38" t="n">
+        <v>940.25244140625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>132.28334045410156</v>
+      </c>
+      <c r="G38" t="n">
+        <v>828.4453735351562</v>
+      </c>
+      <c r="H38" t="n">
+        <v>199.56568908691406</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="n">
-        <v>836.6414794921875</v>
+        <v>500.83349609375</v>
       </c>
       <c r="D39" t="n">
-        <v>96.23008728027344</v>
+        <v>373.5101318359375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>917.57421875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>143.07192993164062</v>
+      </c>
+      <c r="G39" t="n">
+        <v>805.33203125</v>
+      </c>
+      <c r="H39" t="n">
+        <v>204.18690490722656</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="n">
-        <v>846.0158081054688</v>
+        <v>470.7629699707031</v>
       </c>
       <c r="D40" t="n">
-        <v>75.47866821289062</v>
+        <v>398.5767822265625</v>
+      </c>
+      <c r="E40" t="n">
+        <v>897.2030029296875</v>
+      </c>
+      <c r="F40" t="n">
+        <v>155.60617065429688</v>
+      </c>
+      <c r="G40" t="n">
+        <v>791.7091674804688</v>
+      </c>
+      <c r="H40" t="n">
+        <v>209.40855407714844</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="n">
-        <v>898.4833984375</v>
+        <v>428.52880859375</v>
       </c>
       <c r="D41" t="n">
-        <v>86.435546875</v>
+        <v>415.758056640625</v>
+      </c>
+      <c r="E41" t="n">
+        <v>885.1282958984375</v>
+      </c>
+      <c r="F41" t="n">
+        <v>159.76971435546875</v>
+      </c>
+      <c r="G41" t="n">
+        <v>779.307861328125</v>
+      </c>
+      <c r="H41" t="n">
+        <v>221.8172607421875</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="n">
-        <v>912.1677856445312</v>
+        <v>395.4258728027344</v>
       </c>
       <c r="D42" t="n">
-        <v>107.67462921142578</v>
+        <v>434.8664245605469</v>
+      </c>
+      <c r="E42" t="n">
+        <v>866.7139282226562</v>
+      </c>
+      <c r="F42" t="n">
+        <v>173.71197509765625</v>
+      </c>
+      <c r="G42" t="n">
+        <v>767.9141235351562</v>
+      </c>
+      <c r="H42" t="n">
+        <v>230.9241943359375</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="n">
-        <v>933.5892333984375</v>
+        <v>360.30389404296875</v>
       </c>
       <c r="D43" t="n">
-        <v>98.27561950683594</v>
+        <v>453.3769836425781</v>
+      </c>
+      <c r="E43" t="n">
+        <v>845.9740600585938</v>
+      </c>
+      <c r="F43" t="n">
+        <v>177.38534545898438</v>
+      </c>
+      <c r="G43" t="n">
+        <v>740.4329833984375</v>
+      </c>
+      <c r="H43" t="n">
+        <v>247.37701416015625</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="n">
-        <v>956.4443969726562</v>
+        <v>328.2239074707031</v>
       </c>
       <c r="D44" t="n">
-        <v>87.43798065185547</v>
+        <v>473.3221435546875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>836.1131591796875</v>
+      </c>
+      <c r="F44" t="n">
+        <v>192.113037109375</v>
+      </c>
+      <c r="G44" t="n">
+        <v>702.2850952148438</v>
+      </c>
+      <c r="H44" t="n">
+        <v>262.20989990234375</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="n">
-        <v>971.4562377929688</v>
+        <v>290.502197265625</v>
       </c>
       <c r="D45" t="n">
-        <v>114.72987365722656</v>
+        <v>492.375</v>
+      </c>
+      <c r="E45" t="n">
+        <v>813.5928955078125</v>
+      </c>
+      <c r="F45" t="n">
+        <v>197.9473876953125</v>
+      </c>
+      <c r="G45" t="n">
+        <v>669.292724609375</v>
+      </c>
+      <c r="H45" t="n">
+        <v>276.19549560546875</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="n">
-        <v>997.216552734375</v>
+        <v>246.63951110839844</v>
       </c>
       <c r="D46" t="n">
-        <v>105.132568359375</v>
+        <v>518.3753051757812</v>
+      </c>
+      <c r="E46" t="n">
+        <v>802.041748046875</v>
+      </c>
+      <c r="F46" t="n">
+        <v>206.40914916992188</v>
+      </c>
+      <c r="G46" t="n">
+        <v>636.496337890625</v>
+      </c>
+      <c r="H46" t="n">
+        <v>301.1624450683594</v>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="n">
-        <v>1000.1556396484375</v>
+        <v>201.66558837890625</v>
       </c>
       <c r="D47" t="n">
-        <v>110.7115707397461</v>
+        <v>537.4066772460938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>785.7670288085938</v>
+      </c>
+      <c r="F47" t="n">
+        <v>222.75106811523438</v>
+      </c>
+      <c r="G47" t="n">
+        <v>595.9392700195312</v>
+      </c>
+      <c r="H47" t="n">
+        <v>327.1638488769531</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="n">
-        <v>995.5831298828125</v>
+        <v>160.87274169921875</v>
       </c>
       <c r="D48" t="n">
-        <v>99.9637680053711</v>
+        <v>565.0182495117188</v>
+      </c>
+      <c r="E48" t="n">
+        <v>769.4436645507812</v>
+      </c>
+      <c r="F48" t="n">
+        <v>234.20252990722656</v>
+      </c>
+      <c r="G48" t="n">
+        <v>564.3074951171875</v>
+      </c>
+      <c r="H48" t="n">
+        <v>343.3690185546875</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="n">
-        <v>1003.7476806640625</v>
+        <v>118.98645782470703</v>
       </c>
       <c r="D49" t="n">
-        <v>98.35612487792969</v>
+        <v>594.584716796875</v>
+      </c>
+      <c r="E49" t="n">
+        <v>748.8019409179688</v>
+      </c>
+      <c r="F49" t="n">
+        <v>237.72096252441406</v>
+      </c>
+      <c r="G49" t="n">
+        <v>520.9573974609375</v>
+      </c>
+      <c r="H49" t="n">
+        <v>367.18145751953125</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="n">
-        <v>981.6102294921875</v>
+        <v>102.33935546875</v>
       </c>
       <c r="D50" t="n">
-        <v>111.65640258789062</v>
+        <v>600.15966796875</v>
+      </c>
+      <c r="E50" t="n">
+        <v>730.1431274414062</v>
+      </c>
+      <c r="F50" t="n">
+        <v>251.23609924316406</v>
+      </c>
+      <c r="G50" t="n">
+        <v>468.6658935546875</v>
+      </c>
+      <c r="H50" t="n">
+        <v>396.87554931640625</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="n">
-        <v>1013.8436279296875</v>
+        <v>126.49327850341797</v>
       </c>
       <c r="D51" t="n">
-        <v>80.4485092163086</v>
+        <v>599.9639282226562</v>
+      </c>
+      <c r="E51" t="n">
+        <v>705.7249755859375</v>
+      </c>
+      <c r="F51" t="n">
+        <v>261.31585693359375</v>
+      </c>
+      <c r="G51" t="n">
+        <v>425.1446533203125</v>
+      </c>
+      <c r="H51" t="n">
+        <v>420.7240295410156</v>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="n">
-        <v>1002.82861328125</v>
+        <v>150.2907257080078</v>
       </c>
       <c r="D52" t="n">
-        <v>81.35577392578125</v>
+        <v>595.5625610351562</v>
+      </c>
+      <c r="E52" t="n">
+        <v>675.4661254882812</v>
+      </c>
+      <c r="F52" t="n">
+        <v>273.3128662109375</v>
+      </c>
+      <c r="G52" t="n">
+        <v>372.0130615234375</v>
+      </c>
+      <c r="H52" t="n">
+        <v>441.3424987792969</v>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="n">
-        <v>999.22900390625</v>
+        <v>175.19577026367188</v>
       </c>
       <c r="D53" t="n">
-        <v>111.76473999023438</v>
+        <v>595.5844116210938</v>
+      </c>
+      <c r="E53" t="n">
+        <v>655.8304443359375</v>
+      </c>
+      <c r="F53" t="n">
+        <v>288.3763427734375</v>
+      </c>
+      <c r="G53" t="n">
+        <v>326.6954345703125</v>
+      </c>
+      <c r="H53" t="n">
+        <v>475.7208557128906</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="n">
-        <v>967.65087890625</v>
+        <v>191.58078002929688</v>
       </c>
       <c r="D54" t="n">
-        <v>135.9071044921875</v>
+        <v>600.7192993164062</v>
+      </c>
+      <c r="E54" t="n">
+        <v>634.0266723632812</v>
+      </c>
+      <c r="F54" t="n">
+        <v>300.24554443359375</v>
+      </c>
+      <c r="G54" t="n">
+        <v>272.0101318359375</v>
+      </c>
+      <c r="H54" t="n">
+        <v>498.9586181640625</v>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="n">
-        <v>950.9854125976562</v>
+        <v>208.287841796875</v>
       </c>
       <c r="D55" t="n">
-        <v>142.06878662109375</v>
+        <v>600.2514038085938</v>
+      </c>
+      <c r="E55" t="n">
+        <v>611.1797485351562</v>
+      </c>
+      <c r="F55" t="n">
+        <v>315.09765625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>231.48448181152344</v>
+      </c>
+      <c r="H55" t="n">
+        <v>524.2468872070312</v>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="n">
-        <v>946.9928588867188</v>
+        <v>228.09715270996094</v>
       </c>
       <c r="D56" t="n">
-        <v>153.5391845703125</v>
+        <v>598.0098266601562</v>
+      </c>
+      <c r="E56" t="n">
+        <v>591.791015625</v>
+      </c>
+      <c r="F56" t="n">
+        <v>327.06524658203125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>196.41558837890625</v>
+      </c>
+      <c r="H56" t="n">
+        <v>544.320068359375</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="n">
-        <v>892.0968017578125</v>
+        <v>247.13296508789062</v>
       </c>
       <c r="D57" t="n">
-        <v>155.46836853027344</v>
+        <v>596.3366088867188</v>
+      </c>
+      <c r="E57" t="n">
+        <v>565.3102416992188</v>
+      </c>
+      <c r="F57" t="n">
+        <v>345.5704650878906</v>
+      </c>
+      <c r="G57" t="n">
+        <v>156.72518920898438</v>
+      </c>
+      <c r="H57" t="n">
+        <v>570.2964477539062</v>
       </c>
     </row>
     <row r="58">
       <c r="C58" t="n">
-        <v>908.2257080078125</v>
+        <v>269.2953796386719</v>
       </c>
       <c r="D58" t="n">
-        <v>153.13616943359375</v>
+        <v>603.9825439453125</v>
+      </c>
+      <c r="E58" t="n">
+        <v>541.9937133789062</v>
+      </c>
+      <c r="F58" t="n">
+        <v>353.7574768066406</v>
+      </c>
+      <c r="G58" t="n">
+        <v>122.00647735595703</v>
+      </c>
+      <c r="H58" t="n">
+        <v>591.9037475585938</v>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="n">
-        <v>861.31884765625</v>
+        <v>291.8975830078125</v>
       </c>
       <c r="D59" t="n">
-        <v>182.05140686035156</v>
+        <v>600.8963012695312</v>
+      </c>
+      <c r="E59" t="n">
+        <v>522.3692626953125</v>
+      </c>
+      <c r="F59" t="n">
+        <v>366.7264709472656</v>
+      </c>
+      <c r="G59" t="n">
+        <v>124.47222137451172</v>
+      </c>
+      <c r="H59" t="n">
+        <v>597.841796875</v>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="n">
-        <v>865.427490234375</v>
+        <v>324.3621826171875</v>
       </c>
       <c r="D60" t="n">
-        <v>159.90419006347656</v>
+        <v>600.29931640625</v>
+      </c>
+      <c r="E60" t="n">
+        <v>498.031982421875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>378.2229309082031</v>
+      </c>
+      <c r="G60" t="n">
+        <v>150.45338439941406</v>
+      </c>
+      <c r="H60" t="n">
+        <v>591.1621704101562</v>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="n">
-        <v>824.3494873046875</v>
+        <v>354.261962890625</v>
       </c>
       <c r="D61" t="n">
-        <v>173.48867797851562</v>
+        <v>600.4296264648438</v>
+      </c>
+      <c r="E61" t="n">
+        <v>478.1150817871094</v>
+      </c>
+      <c r="F61" t="n">
+        <v>390.40814208984375</v>
+      </c>
+      <c r="G61" t="n">
+        <v>175.844970703125</v>
+      </c>
+      <c r="H61" t="n">
+        <v>594.7129516601562</v>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="n">
-        <v>808.3104858398438</v>
+        <v>379.563232421875</v>
       </c>
       <c r="D62" t="n">
-        <v>192.9917449951172</v>
+        <v>602.4940185546875</v>
+      </c>
+      <c r="E62" t="n">
+        <v>453.8817443847656</v>
+      </c>
+      <c r="F62" t="n">
+        <v>402.945068359375</v>
+      </c>
+      <c r="G62" t="n">
+        <v>192.17373657226562</v>
+      </c>
+      <c r="H62" t="n">
+        <v>594.0963745117188</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="n">
-        <v>819.3585815429688</v>
+        <v>415.6951599121094</v>
       </c>
       <c r="D63" t="n">
-        <v>197.32537841796875</v>
+        <v>598.051513671875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>430.9227294921875</v>
+      </c>
+      <c r="F63" t="n">
+        <v>419.279296875</v>
+      </c>
+      <c r="G63" t="n">
+        <v>205.66578674316406</v>
+      </c>
+      <c r="H63" t="n">
+        <v>600.8604736328125</v>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="n">
-        <v>787.0064086914062</v>
+        <v>439.6595764160156</v>
       </c>
       <c r="D64" t="n">
-        <v>216.41275024414062</v>
+        <v>602.3128662109375</v>
+      </c>
+      <c r="E64" t="n">
+        <v>409.1844177246094</v>
+      </c>
+      <c r="F64" t="n">
+        <v>428.24285888671875</v>
+      </c>
+      <c r="G64" t="n">
+        <v>229.3607940673828</v>
+      </c>
+      <c r="H64" t="n">
+        <v>603.668212890625</v>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="n">
-        <v>784.48779296875</v>
+        <v>472.3645324707031</v>
       </c>
       <c r="D65" t="n">
-        <v>241.5904998779297</v>
+        <v>597.3568115234375</v>
+      </c>
+      <c r="E65" t="n">
+        <v>381.74163818359375</v>
+      </c>
+      <c r="F65" t="n">
+        <v>438.31640625</v>
+      </c>
+      <c r="G65" t="n">
+        <v>250.9123992919922</v>
+      </c>
+      <c r="H65" t="n">
+        <v>598.7999877929688</v>
       </c>
     </row>
     <row r="66">
       <c r="C66" t="n">
-        <v>773.185546875</v>
+        <v>500.1962890625</v>
       </c>
       <c r="D66" t="n">
-        <v>218.75697326660156</v>
+        <v>603.4314575195312</v>
+      </c>
+      <c r="E66" t="n">
+        <v>353.80401611328125</v>
+      </c>
+      <c r="F66" t="n">
+        <v>451.6029357910156</v>
+      </c>
+      <c r="G66" t="n">
+        <v>264.06964111328125</v>
+      </c>
+      <c r="H66" t="n">
+        <v>596.4393310546875</v>
       </c>
     </row>
     <row r="67">
       <c r="C67" t="n">
-        <v>723.8306884765625</v>
+        <v>533.1027221679688</v>
       </c>
       <c r="D67" t="n">
-        <v>228.89952087402344</v>
+        <v>598.3532104492188</v>
+      </c>
+      <c r="E67" t="n">
+        <v>332.86175537109375</v>
+      </c>
+      <c r="F67" t="n">
+        <v>473.3605041503906</v>
+      </c>
+      <c r="G67" t="n">
+        <v>280.8832092285156</v>
+      </c>
+      <c r="H67" t="n">
+        <v>607.682861328125</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" t="n">
-        <v>701.616943359375</v>
+        <v>564.3366088867188</v>
       </c>
       <c r="D68" t="n">
-        <v>248.6179962158203</v>
+        <v>595.2173461914062</v>
+      </c>
+      <c r="E68" t="n">
+        <v>312.35235595703125</v>
+      </c>
+      <c r="F68" t="n">
+        <v>484.9169616699219</v>
+      </c>
+      <c r="G68" t="n">
+        <v>298.7080993652344</v>
+      </c>
+      <c r="H68" t="n">
+        <v>599.187744140625</v>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="n">
-        <v>700.160400390625</v>
+        <v>599.13427734375</v>
       </c>
       <c r="D69" t="n">
-        <v>273.7969970703125</v>
+        <v>597.3067016601562</v>
+      </c>
+      <c r="E69" t="n">
+        <v>293.6400451660156</v>
+      </c>
+      <c r="F69" t="n">
+        <v>489.48516845703125</v>
+      </c>
+      <c r="G69" t="n">
+        <v>312.4671936035156</v>
+      </c>
+      <c r="H69" t="n">
+        <v>608.3394775390625</v>
       </c>
     </row>
     <row r="70">
       <c r="C70" t="n">
-        <v>666.160400390625</v>
+        <v>639.378173828125</v>
       </c>
       <c r="D70" t="n">
-        <v>290.36297607421875</v>
+        <v>600.7481079101562</v>
+      </c>
+      <c r="E70" t="n">
+        <v>271.168701171875</v>
+      </c>
+      <c r="F70" t="n">
+        <v>499.1314392089844</v>
+      </c>
+      <c r="G70" t="n">
+        <v>334.03448486328125</v>
+      </c>
+      <c r="H70" t="n">
+        <v>601.5921630859375</v>
       </c>
     </row>
     <row r="71">
       <c r="C71" t="n">
-        <v>660.6813354492188</v>
+        <v>680.42333984375</v>
       </c>
       <c r="D71" t="n">
-        <v>267.90667724609375</v>
+        <v>596.9539184570312</v>
+      </c>
+      <c r="E71" t="n">
+        <v>249.64404296875</v>
+      </c>
+      <c r="F71" t="n">
+        <v>516.7628173828125</v>
+      </c>
+      <c r="G71" t="n">
+        <v>352.9881896972656</v>
+      </c>
+      <c r="H71" t="n">
+        <v>593.4734497070312</v>
       </c>
     </row>
     <row r="72">
       <c r="C72" t="n">
-        <v>640.3128662109375</v>
+        <v>717.6605834960938</v>
       </c>
       <c r="D72" t="n">
-        <v>278.8183898925781</v>
+        <v>603.8775634765625</v>
+      </c>
+      <c r="E72" t="n">
+        <v>221.64273071289062</v>
+      </c>
+      <c r="F72" t="n">
+        <v>528.3602905273438</v>
+      </c>
+      <c r="G72" t="n">
+        <v>371.90234375</v>
+      </c>
+      <c r="H72" t="n">
+        <v>608.3053588867188</v>
       </c>
     </row>
     <row r="73">
       <c r="C73" t="n">
-        <v>626.33740234375</v>
+        <v>762.841064453125</v>
       </c>
       <c r="D73" t="n">
-        <v>304.52392578125</v>
+        <v>601.1827392578125</v>
+      </c>
+      <c r="E73" t="n">
+        <v>196.19100952148438</v>
+      </c>
+      <c r="F73" t="n">
+        <v>543.2428588867188</v>
+      </c>
+      <c r="G73" t="n">
+        <v>391.45849609375</v>
+      </c>
+      <c r="H73" t="n">
+        <v>601.5647583007812</v>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="n">
-        <v>594.8167724609375</v>
+        <v>798.60546875</v>
       </c>
       <c r="D74" t="n">
-        <v>321.62994384765625</v>
+        <v>601.0560302734375</v>
+      </c>
+      <c r="E74" t="n">
+        <v>175.47032165527344</v>
+      </c>
+      <c r="F74" t="n">
+        <v>560.7494506835938</v>
+      </c>
+      <c r="G74" t="n">
+        <v>418.3212890625</v>
+      </c>
+      <c r="H74" t="n">
+        <v>597.7259521484375</v>
       </c>
     </row>
     <row r="75">
       <c r="C75" t="n">
-        <v>585.7190551757812</v>
+        <v>838.3071899414062</v>
       </c>
       <c r="D75" t="n">
-        <v>337.6090393066406</v>
+        <v>600.783935546875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>144.13577270507812</v>
+      </c>
+      <c r="F75" t="n">
+        <v>573.5646362304688</v>
+      </c>
+      <c r="G75" t="n">
+        <v>452.9300231933594</v>
+      </c>
+      <c r="H75" t="n">
+        <v>598.6119384765625</v>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="n">
-        <v>573.46728515625</v>
+        <v>877.6124877929688</v>
       </c>
       <c r="D76" t="n">
-        <v>324.516845703125</v>
+        <v>599.434326171875</v>
+      </c>
+      <c r="E76" t="n">
+        <v>122.29228210449219</v>
+      </c>
+      <c r="F76" t="n">
+        <v>593.8423461914062</v>
+      </c>
+      <c r="G76" t="n">
+        <v>494.28448486328125</v>
+      </c>
+      <c r="H76" t="n">
+        <v>596.5299072265625</v>
       </c>
     </row>
     <row r="77">
       <c r="C77" t="n">
-        <v>571.3670654296875</v>
+        <v>919.4385986328125</v>
       </c>
       <c r="D77" t="n">
-        <v>329.7100524902344</v>
+        <v>596.8922729492188</v>
+      </c>
+      <c r="E77" t="n">
+        <v>114.43142700195312</v>
+      </c>
+      <c r="F77" t="n">
+        <v>593.9136352539062</v>
+      </c>
+      <c r="G77" t="n">
+        <v>532.75732421875</v>
+      </c>
+      <c r="H77" t="n">
+        <v>597.5029296875</v>
       </c>
     </row>
     <row r="78">
       <c r="C78" t="n">
-        <v>563.1422729492188</v>
+        <v>960.5609130859375</v>
       </c>
       <c r="D78" t="n">
-        <v>337.3212585449219</v>
+        <v>599.0955200195312</v>
+      </c>
+      <c r="E78" t="n">
+        <v>117.68030548095703</v>
+      </c>
+      <c r="F78" t="n">
+        <v>596.5419921875</v>
+      </c>
+      <c r="G78" t="n">
+        <v>573.713134765625</v>
+      </c>
+      <c r="H78" t="n">
+        <v>599.3660278320312</v>
       </c>
     </row>
     <row r="79">
       <c r="C79" t="n">
-        <v>539.2811889648438</v>
+        <v>999.5424194335938</v>
       </c>
       <c r="D79" t="n">
-        <v>379.1608581542969</v>
+        <v>598.966796875</v>
+      </c>
+      <c r="E79" t="n">
+        <v>137.3553924560547</v>
+      </c>
+      <c r="F79" t="n">
+        <v>597.785888671875</v>
+      </c>
+      <c r="G79" t="n">
+        <v>606.5208740234375</v>
+      </c>
+      <c r="H79" t="n">
+        <v>598.577880859375</v>
       </c>
     </row>
     <row r="80">
       <c r="C80" t="n">
-        <v>495.207763671875</v>
+        <v>998.2369384765625</v>
       </c>
       <c r="D80" t="n">
-        <v>377.7061767578125</v>
+        <v>599.1768188476562</v>
+      </c>
+      <c r="E80" t="n">
+        <v>159.6759490966797</v>
+      </c>
+      <c r="F80" t="n">
+        <v>593.7695922851562</v>
+      </c>
+      <c r="G80" t="n">
+        <v>646.1104736328125</v>
+      </c>
+      <c r="H80" t="n">
+        <v>601.763916015625</v>
       </c>
     </row>
     <row r="81">
       <c r="C81" t="n">
-        <v>501.6971435546875</v>
+        <v>975.7034301757812</v>
       </c>
       <c r="D81" t="n">
-        <v>368.974365234375</v>
+        <v>584.3529052734375</v>
+      </c>
+      <c r="E81" t="n">
+        <v>178.6811065673828</v>
+      </c>
+      <c r="F81" t="n">
+        <v>591.509521484375</v>
+      </c>
+      <c r="G81" t="n">
+        <v>685.9618530273438</v>
+      </c>
+      <c r="H81" t="n">
+        <v>599.2919921875</v>
       </c>
     </row>
     <row r="82">
       <c r="C82" t="n">
-        <v>482.8371887207031</v>
+        <v>958.340576171875</v>
       </c>
       <c r="D82" t="n">
-        <v>404.54901123046875</v>
+        <v>575.6962280273438</v>
+      </c>
+      <c r="E82" t="n">
+        <v>192.10533142089844</v>
+      </c>
+      <c r="F82" t="n">
+        <v>596.39453125</v>
+      </c>
+      <c r="G82" t="n">
+        <v>719.3955078125</v>
+      </c>
+      <c r="H82" t="n">
+        <v>603.0630493164062</v>
       </c>
     </row>
     <row r="83">
       <c r="C83" t="n">
-        <v>438.70538330078125</v>
+        <v>943.9567260742188</v>
       </c>
       <c r="D83" t="n">
-        <v>388.1683654785156</v>
+        <v>560.4183959960938</v>
+      </c>
+      <c r="E83" t="n">
+        <v>211.478515625</v>
+      </c>
+      <c r="F83" t="n">
+        <v>604.4334106445312</v>
+      </c>
+      <c r="G83" t="n">
+        <v>748.6592407226562</v>
+      </c>
+      <c r="H83" t="n">
+        <v>605.1580200195312</v>
       </c>
     </row>
     <row r="84">
       <c r="C84" t="n">
-        <v>432.41448974609375</v>
+        <v>926.4902954101562</v>
       </c>
       <c r="D84" t="n">
-        <v>424.5234375</v>
+        <v>550.8413696289062</v>
+      </c>
+      <c r="E84" t="n">
+        <v>235.321044921875</v>
+      </c>
+      <c r="F84" t="n">
+        <v>600.4993286132812</v>
+      </c>
+      <c r="G84" t="n">
+        <v>782.207763671875</v>
+      </c>
+      <c r="H84" t="n">
+        <v>599.763916015625</v>
       </c>
     </row>
     <row r="85">
       <c r="C85" t="n">
-        <v>436.04168701171875</v>
+        <v>900.603759765625</v>
       </c>
       <c r="D85" t="n">
-        <v>420.83367919921875</v>
+        <v>538.1735229492188</v>
+      </c>
+      <c r="E85" t="n">
+        <v>256.9475402832031</v>
+      </c>
+      <c r="F85" t="n">
+        <v>595.550537109375</v>
+      </c>
+      <c r="G85" t="n">
+        <v>812.984619140625</v>
+      </c>
+      <c r="H85" t="n">
+        <v>601.588623046875</v>
       </c>
     </row>
     <row r="86">
       <c r="C86" t="n">
-        <v>387.07391357421875</v>
+        <v>881.3656005859375</v>
       </c>
       <c r="D86" t="n">
-        <v>423.05694580078125</v>
+        <v>528.8054809570312</v>
+      </c>
+      <c r="E86" t="n">
+        <v>273.7225646972656</v>
+      </c>
+      <c r="F86" t="n">
+        <v>608.515625</v>
+      </c>
+      <c r="G86" t="n">
+        <v>840.9763793945312</v>
+      </c>
+      <c r="H86" t="n">
+        <v>598.4452514648438</v>
       </c>
     </row>
     <row r="87">
       <c r="C87" t="n">
-        <v>384.3873596191406</v>
+        <v>849.8455810546875</v>
       </c>
       <c r="D87" t="n">
-        <v>459.0729064941406</v>
+        <v>510.078125</v>
+      </c>
+      <c r="E87" t="n">
+        <v>295.46112060546875</v>
+      </c>
+      <c r="F87" t="n">
+        <v>597.4374389648438</v>
+      </c>
+      <c r="G87" t="n">
+        <v>871.8062744140625</v>
+      </c>
+      <c r="H87" t="n">
+        <v>601.9835205078125</v>
       </c>
     </row>
     <row r="88">
       <c r="C88" t="n">
-        <v>366.562255859375</v>
+        <v>828.2550048828125</v>
       </c>
       <c r="D88" t="n">
-        <v>434.797119140625</v>
+        <v>497.70538330078125</v>
+      </c>
+      <c r="E88" t="n">
+        <v>313.8319091796875</v>
+      </c>
+      <c r="F88" t="n">
+        <v>605.1629028320312</v>
+      </c>
+      <c r="G88" t="n">
+        <v>904.3861083984375</v>
+      </c>
+      <c r="H88" t="n">
+        <v>596.1196899414062</v>
       </c>
     </row>
     <row r="89">
       <c r="C89" t="n">
-        <v>349.7754821777344</v>
+        <v>799.0817260742188</v>
       </c>
       <c r="D89" t="n">
-        <v>473.0101318359375</v>
+        <v>478.503662109375</v>
+      </c>
+      <c r="E89" t="n">
+        <v>329.7303466796875</v>
+      </c>
+      <c r="F89" t="n">
+        <v>603.6023559570312</v>
+      </c>
+      <c r="G89" t="n">
+        <v>921.712890625</v>
+      </c>
+      <c r="H89" t="n">
+        <v>596.4848022460938</v>
       </c>
     </row>
     <row r="90">
       <c r="C90" t="n">
-        <v>339.99224853515625</v>
+        <v>779.3316040039062</v>
       </c>
       <c r="D90" t="n">
-        <v>488.9153137207031</v>
+        <v>467.192138671875</v>
+      </c>
+      <c r="E90" t="n">
+        <v>348.4339904785156</v>
+      </c>
+      <c r="F90" t="n">
+        <v>597.5946044921875</v>
+      </c>
+      <c r="G90" t="n">
+        <v>942.9402465820312</v>
+      </c>
+      <c r="H90" t="n">
+        <v>598.1730346679688</v>
       </c>
     </row>
     <row r="91">
       <c r="C91" t="n">
-        <v>305.20672607421875</v>
+        <v>749.27734375</v>
       </c>
       <c r="D91" t="n">
-        <v>484.3905029296875</v>
+        <v>452.4986267089844</v>
+      </c>
+      <c r="E91" t="n">
+        <v>372.0948791503906</v>
+      </c>
+      <c r="F91" t="n">
+        <v>604.190185546875</v>
+      </c>
+      <c r="G91" t="n">
+        <v>978.9503784179688</v>
+      </c>
+      <c r="H91" t="n">
+        <v>596.130615234375</v>
       </c>
     </row>
     <row r="92">
       <c r="C92" t="n">
-        <v>306.68841552734375</v>
+        <v>729.904052734375</v>
       </c>
       <c r="D92" t="n">
-        <v>501.0211486816406</v>
+        <v>436.3861999511719</v>
+      </c>
+      <c r="E92" t="n">
+        <v>398.327880859375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>599.1832275390625</v>
+      </c>
+      <c r="G92" t="n">
+        <v>997.25390625</v>
+      </c>
+      <c r="H92" t="n">
+        <v>597.5526733398438</v>
       </c>
     </row>
     <row r="93">
       <c r="C93" t="n">
-        <v>300.3362731933594</v>
+        <v>703.9557495117188</v>
       </c>
       <c r="D93" t="n">
-        <v>499.8604431152344</v>
+        <v>421.0164794921875</v>
+      </c>
+      <c r="E93" t="n">
+        <v>428.3746032714844</v>
+      </c>
+      <c r="F93" t="n">
+        <v>598.5224609375</v>
+      </c>
+      <c r="G93" t="n">
+        <v>974.5892944335938</v>
+      </c>
+      <c r="H93" t="n">
+        <v>582.4274291992188</v>
       </c>
     </row>
     <row r="94">
       <c r="C94" t="n">
-        <v>265.2099609375</v>
+        <v>685.178466796875</v>
       </c>
       <c r="D94" t="n">
-        <v>516.156982421875</v>
+        <v>409.62896728515625</v>
+      </c>
+      <c r="E94" t="n">
+        <v>456.0653076171875</v>
+      </c>
+      <c r="F94" t="n">
+        <v>598.5186157226562</v>
+      </c>
+      <c r="G94" t="n">
+        <v>950.2911376953125</v>
+      </c>
+      <c r="H94" t="n">
+        <v>572.9393920898438</v>
       </c>
     </row>
     <row r="95">
       <c r="C95" t="n">
-        <v>259.10125732421875</v>
+        <v>647.7853393554688</v>
       </c>
       <c r="D95" t="n">
-        <v>505.83868408203125</v>
+        <v>391.1451416015625</v>
+      </c>
+      <c r="E95" t="n">
+        <v>484.1498718261719</v>
+      </c>
+      <c r="F95" t="n">
+        <v>596.1439208984375</v>
+      </c>
+      <c r="G95" t="n">
+        <v>938.5030517578125</v>
+      </c>
+      <c r="H95" t="n">
+        <v>556.2886962890625</v>
       </c>
     </row>
     <row r="96">
       <c r="C96" t="n">
-        <v>241.7666778564453</v>
+        <v>603.2438354492188</v>
       </c>
       <c r="D96" t="n">
-        <v>516.287109375</v>
+        <v>363.6839294433594</v>
+      </c>
+      <c r="E96" t="n">
+        <v>514.1663208007812</v>
+      </c>
+      <c r="F96" t="n">
+        <v>598.51806640625</v>
+      </c>
+      <c r="G96" t="n">
+        <v>926.8335571289062</v>
+      </c>
+      <c r="H96" t="n">
+        <v>552.5568237304688</v>
       </c>
     </row>
     <row r="97">
       <c r="C97" t="n">
-        <v>194.41600036621094</v>
+        <v>571.992919921875</v>
       </c>
       <c r="D97" t="n">
-        <v>548.9586181640625</v>
+        <v>344.99322509765625</v>
+      </c>
+      <c r="E97" t="n">
+        <v>545.3811645507812</v>
+      </c>
+      <c r="F97" t="n">
+        <v>594.322021484375</v>
+      </c>
+      <c r="G97" t="n">
+        <v>900.828857421875</v>
+      </c>
+      <c r="H97" t="n">
+        <v>542.0821533203125</v>
       </c>
     </row>
     <row r="98">
       <c r="C98" t="n">
-        <v>205.75616455078125</v>
+        <v>537.6420288085938</v>
       </c>
       <c r="D98" t="n">
-        <v>531.3740234375</v>
+        <v>325.43865966796875</v>
+      </c>
+      <c r="E98" t="n">
+        <v>566.846435546875</v>
+      </c>
+      <c r="F98" t="n">
+        <v>596.352783203125</v>
+      </c>
+      <c r="G98" t="n">
+        <v>886.0997924804688</v>
+      </c>
+      <c r="H98" t="n">
+        <v>531.5765380859375</v>
       </c>
     </row>
     <row r="99">
       <c r="C99" t="n">
-        <v>193.69683837890625</v>
+        <v>502.2103271484375</v>
       </c>
       <c r="D99" t="n">
-        <v>564.86767578125</v>
+        <v>304.0586242675781</v>
+      </c>
+      <c r="E99" t="n">
+        <v>595.768798828125</v>
+      </c>
+      <c r="F99" t="n">
+        <v>598.017333984375</v>
+      </c>
+      <c r="G99" t="n">
+        <v>866.1616821289062</v>
+      </c>
+      <c r="H99" t="n">
+        <v>522.4329833984375</v>
       </c>
     </row>
     <row r="100">
-      <c r="C100" t="n">
-        <v>149.8961181640625</v>
-      </c>
-      <c r="D100" t="n">
-        <v>551.1883544921875</v>
+      <c r="E100" t="n">
+        <v>617.7076416015625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>595.7173461914062</v>
+      </c>
+      <c r="G100" t="n">
+        <v>838.489013671875</v>
+      </c>
+      <c r="H100" t="n">
+        <v>504.2066955566406</v>
       </c>
     </row>
     <row r="101">
-      <c r="C101" t="n">
-        <v>146.8511962890625</v>
-      </c>
-      <c r="D101" t="n">
-        <v>589.3441772460938</v>
+      <c r="E101" t="n">
+        <v>645.6500244140625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>602.9033813476562</v>
+      </c>
+      <c r="G101" t="n">
+        <v>817.8839721679688</v>
+      </c>
+      <c r="H101" t="n">
+        <v>492.02587890625</v>
       </c>
     </row>
     <row r="102">
-      <c r="C102" t="n">
-        <v>143.9575958251953</v>
-      </c>
-      <c r="D102" t="n">
-        <v>582.882568359375</v>
+      <c r="E102" t="n">
+        <v>674.5001220703125</v>
+      </c>
+      <c r="F102" t="n">
+        <v>597.4611206054688</v>
+      </c>
+      <c r="G102" t="n">
+        <v>798.2346801757812</v>
+      </c>
+      <c r="H102" t="n">
+        <v>474.9486083984375</v>
       </c>
     </row>
     <row r="103">
-      <c r="C103" t="n">
-        <v>108.02276611328125</v>
-      </c>
-      <c r="D103" t="n">
-        <v>586.7070922851562</v>
+      <c r="E103" t="n">
+        <v>710.608642578125</v>
+      </c>
+      <c r="F103" t="n">
+        <v>605.9815673828125</v>
+      </c>
+      <c r="G103" t="n">
+        <v>777.7059326171875</v>
+      </c>
+      <c r="H103" t="n">
+        <v>468.24420166015625</v>
       </c>
     </row>
     <row r="104">
-      <c r="C104" t="n">
-        <v>108.69293975830078</v>
-      </c>
-      <c r="D104" t="n">
-        <v>610.2808227539062</v>
+      <c r="E104" t="n">
+        <v>739.3169555664062</v>
+      </c>
+      <c r="F104" t="n">
+        <v>606.45654296875</v>
+      </c>
+      <c r="G104" t="n">
+        <v>761.4093017578125</v>
+      </c>
+      <c r="H104" t="n">
+        <v>461.6839599609375</v>
       </c>
     </row>
     <row r="105">
-      <c r="C105" t="n">
-        <v>105.57936096191406</v>
-      </c>
-      <c r="D105" t="n">
-        <v>584.8163452148438</v>
+      <c r="E105" t="n">
+        <v>761.5150146484375</v>
+      </c>
+      <c r="F105" t="n">
+        <v>602.3028564453125</v>
+      </c>
+      <c r="G105" t="n">
+        <v>743.2611694335938</v>
+      </c>
+      <c r="H105" t="n">
+        <v>446.99920654296875</v>
       </c>
     </row>
     <row r="106">
-      <c r="C106" t="n">
-        <v>107.26708221435547</v>
-      </c>
-      <c r="D106" t="n">
-        <v>600.8350219726562</v>
+      <c r="E106" t="n">
+        <v>789.0203857421875</v>
+      </c>
+      <c r="F106" t="n">
+        <v>603.2782592773438</v>
+      </c>
+      <c r="G106" t="n">
+        <v>735.275634765625</v>
+      </c>
+      <c r="H106" t="n">
+        <v>439.2265625</v>
       </c>
     </row>
     <row r="107">
-      <c r="C107" t="n">
-        <v>91.28575897216797</v>
-      </c>
-      <c r="D107" t="n">
-        <v>617.09326171875</v>
+      <c r="E107" t="n">
+        <v>822.5963745117188</v>
+      </c>
+      <c r="F107" t="n">
+        <v>599.5247192382812</v>
+      </c>
+      <c r="G107" t="n">
+        <v>717.9912109375</v>
+      </c>
+      <c r="H107" t="n">
+        <v>425.5806884765625</v>
       </c>
     </row>
     <row r="108">
-      <c r="C108" t="n">
-        <v>96.80857849121094</v>
-      </c>
-      <c r="D108" t="n">
-        <v>592.2853393554688</v>
+      <c r="E108" t="n">
+        <v>854.65478515625</v>
+      </c>
+      <c r="F108" t="n">
+        <v>602.428955078125</v>
+      </c>
+      <c r="G108" t="n">
+        <v>700.40380859375</v>
+      </c>
+      <c r="H108" t="n">
+        <v>417.0823059082031</v>
       </c>
     </row>
     <row r="109">
-      <c r="C109" t="n">
-        <v>93.19129943847656</v>
-      </c>
-      <c r="D109" t="n">
-        <v>587.217041015625</v>
+      <c r="E109" t="n">
+        <v>881.3800048828125</v>
+      </c>
+      <c r="F109" t="n">
+        <v>601.0280151367188</v>
+      </c>
+      <c r="G109" t="n">
+        <v>685.5192260742188</v>
+      </c>
+      <c r="H109" t="n">
+        <v>412.799072265625</v>
       </c>
     </row>
     <row r="110">
-      <c r="C110" t="n">
-        <v>148.76512145996094</v>
-      </c>
-      <c r="D110" t="n">
-        <v>596.9785766601562</v>
+      <c r="E110" t="n">
+        <v>906.44970703125</v>
+      </c>
+      <c r="F110" t="n">
+        <v>592.6533203125</v>
+      </c>
+      <c r="G110" t="n">
+        <v>667.2960205078125</v>
+      </c>
+      <c r="H110" t="n">
+        <v>397.51593017578125</v>
       </c>
     </row>
     <row r="111">
-      <c r="C111" t="n">
-        <v>155.03256225585938</v>
-      </c>
-      <c r="D111" t="n">
-        <v>611.1467895507812</v>
+      <c r="E111" t="n">
+        <v>938.6561279296875</v>
+      </c>
+      <c r="F111" t="n">
+        <v>601.1834716796875</v>
+      </c>
+      <c r="G111" t="n">
+        <v>636.4927368164062</v>
+      </c>
+      <c r="H111" t="n">
+        <v>378.48175048828125</v>
       </c>
     </row>
     <row r="112">
-      <c r="C112" t="n">
-        <v>158.6175994873047</v>
-      </c>
-      <c r="D112" t="n">
-        <v>617.5534057617188</v>
+      <c r="E112" t="n">
+        <v>963.02880859375</v>
+      </c>
+      <c r="F112" t="n">
+        <v>600.0927734375</v>
+      </c>
+      <c r="G112" t="n">
+        <v>611.1372680664062</v>
+      </c>
+      <c r="H112" t="n">
+        <v>363.25433349609375</v>
       </c>
     </row>
     <row r="113">
-      <c r="C113" t="n">
-        <v>180.86683654785156</v>
-      </c>
-      <c r="D113" t="n">
-        <v>580.05712890625</v>
+      <c r="E113" t="n">
+        <v>986.8731689453125</v>
+      </c>
+      <c r="F113" t="n">
+        <v>598.0594482421875</v>
+      </c>
+      <c r="G113" t="n">
+        <v>584.0634155273438</v>
+      </c>
+      <c r="H113" t="n">
+        <v>351.460205078125</v>
       </c>
     </row>
     <row r="114">
-      <c r="C114" t="n">
-        <v>202.27178955078125</v>
-      </c>
-      <c r="D114" t="n">
-        <v>598.2469482421875</v>
+      <c r="E114" t="n">
+        <v>995.5772705078125</v>
+      </c>
+      <c r="F114" t="n">
+        <v>596.1441650390625</v>
+      </c>
+      <c r="G114" t="n">
+        <v>565.769287109375</v>
+      </c>
+      <c r="H114" t="n">
+        <v>338.321044921875</v>
       </c>
     </row>
     <row r="115">
-      <c r="C115" t="n">
-        <v>213.39013671875</v>
-      </c>
-      <c r="D115" t="n">
-        <v>615.4072875976562</v>
+      <c r="E115" t="n">
+        <v>1004.0548706054688</v>
+      </c>
+      <c r="F115" t="n">
+        <v>600.5472412109375</v>
+      </c>
+      <c r="G115" t="n">
+        <v>547.357177734375</v>
+      </c>
+      <c r="H115" t="n">
+        <v>335.73974609375</v>
       </c>
     </row>
     <row r="116">
-      <c r="C116" t="n">
-        <v>261.3189392089844</v>
-      </c>
-      <c r="D116" t="n">
-        <v>581.83154296875</v>
+      <c r="E116" t="n">
+        <v>1001.9414672851562</v>
+      </c>
+      <c r="F116" t="n">
+        <v>599.8358154296875</v>
+      </c>
+      <c r="G116" t="n">
+        <v>514.042236328125</v>
+      </c>
+      <c r="H116" t="n">
+        <v>314.4906311035156</v>
       </c>
     </row>
     <row r="117">
-      <c r="C117" t="n">
-        <v>259.774658203125</v>
-      </c>
-      <c r="D117" t="n">
-        <v>598.2564697265625</v>
+      <c r="E117" t="n">
+        <v>983.1629028320312</v>
+      </c>
+      <c r="F117" t="n">
+        <v>589.8525390625</v>
+      </c>
+      <c r="G117" t="n">
+        <v>500.7815246582031</v>
+      </c>
+      <c r="H117" t="n">
+        <v>299.4083557128906</v>
       </c>
     </row>
     <row r="118">
-      <c r="C118" t="n">
-        <v>298.3431701660156</v>
-      </c>
-      <c r="D118" t="n">
-        <v>616.4930419921875</v>
+      <c r="E118" t="n">
+        <v>970.3701782226562</v>
+      </c>
+      <c r="F118" t="n">
+        <v>580.4361572265625</v>
+      </c>
+      <c r="G118" t="n">
+        <v>508.00897216796875</v>
+      </c>
+      <c r="H118" t="n">
+        <v>304.63031005859375</v>
       </c>
     </row>
     <row r="119">
-      <c r="C119" t="n">
-        <v>300.4888610839844</v>
-      </c>
-      <c r="D119" t="n">
-        <v>592.0787353515625</v>
+      <c r="E119" t="n">
+        <v>950.6461791992188</v>
+      </c>
+      <c r="F119" t="n">
+        <v>564.8457641601562</v>
+      </c>
+      <c r="G119" t="n">
+        <v>500.46343994140625</v>
+      </c>
+      <c r="H119" t="n">
+        <v>297.48712158203125</v>
       </c>
     </row>
     <row r="120">
-      <c r="C120" t="n">
-        <v>316.586669921875</v>
-      </c>
-      <c r="D120" t="n">
-        <v>600.9095458984375</v>
+      <c r="E120" t="n">
+        <v>935.876708984375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>551.5235595703125</v>
       </c>
     </row>
     <row r="121">
-      <c r="C121" t="n">
-        <v>361.8208312988281</v>
-      </c>
-      <c r="D121" t="n">
-        <v>595.4024658203125</v>
+      <c r="E121" t="n">
+        <v>917.1726684570312</v>
+      </c>
+      <c r="F121" t="n">
+        <v>546.7625122070312</v>
       </c>
     </row>
     <row r="122">
-      <c r="C122" t="n">
-        <v>361.6661071777344</v>
-      </c>
-      <c r="D122" t="n">
-        <v>615.984130859375</v>
+      <c r="E122" t="n">
+        <v>896.8642578125</v>
+      </c>
+      <c r="F122" t="n">
+        <v>539.5711059570312</v>
       </c>
     </row>
     <row r="123">
-      <c r="C123" t="n">
-        <v>400.33416748046875</v>
-      </c>
-      <c r="D123" t="n">
-        <v>613.9192504882812</v>
+      <c r="E123" t="n">
+        <v>882.5279541015625</v>
+      </c>
+      <c r="F123" t="n">
+        <v>530.0929565429688</v>
       </c>
     </row>
     <row r="124">
-      <c r="C124" t="n">
-        <v>428.66668701171875</v>
-      </c>
-      <c r="D124" t="n">
-        <v>608.1292724609375</v>
+      <c r="E124" t="n">
+        <v>868.5641479492188</v>
+      </c>
+      <c r="F124" t="n">
+        <v>525.2744750976562</v>
       </c>
     </row>
     <row r="125">
-      <c r="C125" t="n">
-        <v>434.24249267578125</v>
-      </c>
-      <c r="D125" t="n">
-        <v>611.2764892578125</v>
+      <c r="E125" t="n">
+        <v>853.3056640625</v>
+      </c>
+      <c r="F125" t="n">
+        <v>506.3511047363281</v>
       </c>
     </row>
     <row r="126">
-      <c r="C126" t="n">
-        <v>462.82318115234375</v>
-      </c>
-      <c r="D126" t="n">
-        <v>601.6982421875</v>
+      <c r="E126" t="n">
+        <v>838.01220703125</v>
+      </c>
+      <c r="F126" t="n">
+        <v>499.61541748046875</v>
       </c>
     </row>
     <row r="127">
-      <c r="C127" t="n">
-        <v>489.6972961425781</v>
-      </c>
-      <c r="D127" t="n">
-        <v>603.59033203125</v>
+      <c r="E127" t="n">
+        <v>813.2809448242188</v>
+      </c>
+      <c r="F127" t="n">
+        <v>494.2906188964844</v>
       </c>
     </row>
     <row r="128">
-      <c r="C128" t="n">
-        <v>493.1299743652344</v>
-      </c>
-      <c r="D128" t="n">
-        <v>607.1014404296875</v>
+      <c r="E128" t="n">
+        <v>804.8837280273438</v>
+      </c>
+      <c r="F128" t="n">
+        <v>479.859375</v>
       </c>
     </row>
     <row r="129">
-      <c r="C129" t="n">
-        <v>509.2412414550781</v>
-      </c>
-      <c r="D129" t="n">
-        <v>604.7835083007812</v>
+      <c r="E129" t="n">
+        <v>782.8032836914062</v>
+      </c>
+      <c r="F129" t="n">
+        <v>473.7686767578125</v>
       </c>
     </row>
     <row r="130">
-      <c r="C130" t="n">
-        <v>535.6047973632812</v>
-      </c>
-      <c r="D130" t="n">
-        <v>616.3435668945312</v>
+      <c r="E130" t="n">
+        <v>770.1436157226562</v>
+      </c>
+      <c r="F130" t="n">
+        <v>460.7766418457031</v>
       </c>
     </row>
     <row r="131">
-      <c r="C131" t="n">
-        <v>555.1865844726562</v>
-      </c>
-      <c r="D131" t="n">
-        <v>588.1746215820312</v>
+      <c r="E131" t="n">
+        <v>751.9161987304688</v>
+      </c>
+      <c r="F131" t="n">
+        <v>455.4717102050781</v>
       </c>
     </row>
     <row r="132">
-      <c r="C132" t="n">
-        <v>566.5640258789062</v>
-      </c>
-      <c r="D132" t="n">
-        <v>619.16064453125</v>
+      <c r="E132" t="n">
+        <v>733.0599365234375</v>
+      </c>
+      <c r="F132" t="n">
+        <v>436.2632141113281</v>
       </c>
     </row>
     <row r="133">
-      <c r="C133" t="n">
-        <v>592.4373779296875</v>
-      </c>
-      <c r="D133" t="n">
-        <v>584.3157348632812</v>
+      <c r="E133" t="n">
+        <v>708.45263671875</v>
+      </c>
+      <c r="F133" t="n">
+        <v>424.73089599609375</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="n">
+        <v>681.660888671875</v>
+      </c>
+      <c r="F134" t="n">
+        <v>412.92840576171875</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="n">
+        <v>676.74365234375</v>
+      </c>
+      <c r="F135" t="n">
+        <v>402.0169982910156</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="n">
+        <v>647.8231811523438</v>
+      </c>
+      <c r="F136" t="n">
+        <v>389.9083251953125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="n">
+        <v>638.5904541015625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>387.586669921875</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="n">
+        <v>617.92724609375</v>
+      </c>
+      <c r="F138" t="n">
+        <v>371.7083435058594</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="n">
+        <v>605.6639404296875</v>
+      </c>
+      <c r="F139" t="n">
+        <v>357.5037841796875</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="n">
+        <v>584.8694458007812</v>
+      </c>
+      <c r="F140" t="n">
+        <v>350.98040771484375</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="n">
+        <v>569.257080078125</v>
+      </c>
+      <c r="F141" t="n">
+        <v>342.72650146484375</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="n">
+        <v>545.1721801757812</v>
+      </c>
+      <c r="F142" t="n">
+        <v>332.7760925292969</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="n">
+        <v>526.9266357421875</v>
+      </c>
+      <c r="F143" t="n">
+        <v>320.6817626953125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="n">
+        <v>505.6189880371094</v>
+      </c>
+      <c r="F144" t="n">
+        <v>300.4014892578125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="n">
+        <v>502.9080505371094</v>
+      </c>
+      <c r="F145" t="n">
+        <v>303.92041015625</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="n">
+        <v>500.78814697265625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>302.1772155761719</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="n">
+        <v>504.1876525878906</v>
+      </c>
+      <c r="F147" t="n">
+        <v>302.8744201660156</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="n">
+        <v>502.8385009765625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>299.6559143066406</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="n">
+        <v>504.0029602050781</v>
+      </c>
+      <c r="F149" t="n">
+        <v>306.70953369140625</v>
       </c>
     </row>
   </sheetData>
